--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M462"/>
+  <dimension ref="A1:M471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18870,6 +18870,355 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>378.9444444444445</v>
+      </c>
+      <c r="C463" t="n">
+        <v>375.6509090909091</v>
+      </c>
+      <c r="D463" t="n">
+        <v>389.6533333333333</v>
+      </c>
+      <c r="E463" t="n">
+        <v>396.1466666666666</v>
+      </c>
+      <c r="F463" t="n">
+        <v>395.1471428571429</v>
+      </c>
+      <c r="G463" t="n">
+        <v>398.1571428571429</v>
+      </c>
+      <c r="H463" t="n">
+        <v>396.1371428571428</v>
+      </c>
+      <c r="I463" t="n">
+        <v>394.7222222222222</v>
+      </c>
+      <c r="J463" t="n">
+        <v>403.0068421052632</v>
+      </c>
+      <c r="K463" t="n">
+        <v>401.3847619047619</v>
+      </c>
+      <c r="L463" t="n">
+        <v>405.3547058823529</v>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>387.0255555555556</v>
+      </c>
+      <c r="C464" t="n">
+        <v>387.83</v>
+      </c>
+      <c r="D464" t="n">
+        <v>401.4066666666667</v>
+      </c>
+      <c r="E464" t="n">
+        <v>397.3833333333333</v>
+      </c>
+      <c r="F464" t="n">
+        <v>408.1914285714286</v>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>378.2544444444445</v>
+      </c>
+      <c r="C465" t="n">
+        <v>390.2018181818182</v>
+      </c>
+      <c r="D465" t="n">
+        <v>390.1833333333333</v>
+      </c>
+      <c r="E465" t="n">
+        <v>397.6566666666666</v>
+      </c>
+      <c r="F465" t="n">
+        <v>401.91</v>
+      </c>
+      <c r="G465" t="n">
+        <v>406.41</v>
+      </c>
+      <c r="H465" t="n">
+        <v>399.07</v>
+      </c>
+      <c r="I465" t="n">
+        <v>406.4722222222222</v>
+      </c>
+      <c r="J465" t="n">
+        <v>414.4247368421052</v>
+      </c>
+      <c r="K465" t="n">
+        <v>415.5733333333333</v>
+      </c>
+      <c r="L465" t="n">
+        <v>422.3782352941176</v>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>385.4122222222222</v>
+      </c>
+      <c r="C466" t="n">
+        <v>383.1018181818182</v>
+      </c>
+      <c r="D466" t="n">
+        <v>394.0766666666667</v>
+      </c>
+      <c r="E466" t="n">
+        <v>398.7633333333333</v>
+      </c>
+      <c r="F466" t="n">
+        <v>406.7128571428572</v>
+      </c>
+      <c r="G466" t="n">
+        <v>408.7228571428572</v>
+      </c>
+      <c r="H466" t="n">
+        <v>410.9728571428572</v>
+      </c>
+      <c r="I466" t="n">
+        <v>411.2111111111111</v>
+      </c>
+      <c r="J466" t="n">
+        <v>421.3552631578947</v>
+      </c>
+      <c r="K466" t="n">
+        <v>414.1052380952381</v>
+      </c>
+      <c r="L466" t="n">
+        <v>391.7576470588235</v>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="n">
+        <v>412.1028571428572</v>
+      </c>
+      <c r="H467" t="n">
+        <v>402.5028571428572</v>
+      </c>
+      <c r="I467" t="n">
+        <v>413.5877777777778</v>
+      </c>
+      <c r="J467" t="n">
+        <v>419.1263157894737</v>
+      </c>
+      <c r="K467" t="n">
+        <v>417.8752380952381</v>
+      </c>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>388.1888888888889</v>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>405.5538095238095</v>
+      </c>
+      <c r="L468" t="n">
+        <v>419.4935294117647</v>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>409.87</v>
+      </c>
+      <c r="K469" t="n">
+        <v>411.2909523809524</v>
+      </c>
+      <c r="L469" t="n">
+        <v>425.3494117647058</v>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>386.5855555555555</v>
+      </c>
+      <c r="C470" t="n">
+        <v>387.2772727272728</v>
+      </c>
+      <c r="D470" t="n">
+        <v>393.8166666666667</v>
+      </c>
+      <c r="E470" t="n">
+        <v>397.2633333333333</v>
+      </c>
+      <c r="F470" t="n">
+        <v>406.0171428571429</v>
+      </c>
+      <c r="G470" t="n">
+        <v>405.8771428571428</v>
+      </c>
+      <c r="H470" t="n">
+        <v>400.2671428571429</v>
+      </c>
+      <c r="I470" t="n">
+        <v>402.1877777777778</v>
+      </c>
+      <c r="J470" t="n">
+        <v>410.4973684210527</v>
+      </c>
+      <c r="K470" t="n">
+        <v>413.1180952380952</v>
+      </c>
+      <c r="L470" t="n">
+        <v>424.8682352941176</v>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>371.6122222222222</v>
+      </c>
+      <c r="C471" t="n">
+        <v>372.0018181818182</v>
+      </c>
+      <c r="D471" t="n">
+        <v>387.0766666666667</v>
+      </c>
+      <c r="E471" t="n">
+        <v>382.3333333333333</v>
+      </c>
+      <c r="F471" t="n">
+        <v>392.7457142857143</v>
+      </c>
+      <c r="G471" t="n">
+        <v>396.6057142857143</v>
+      </c>
+      <c r="H471" t="n">
+        <v>393.6557142857143</v>
+      </c>
+      <c r="I471" t="n">
+        <v>394.2711111111111</v>
+      </c>
+      <c r="J471" t="n">
+        <v>396.7563157894737</v>
+      </c>
+      <c r="K471" t="n">
+        <v>398.7438095238096</v>
+      </c>
+      <c r="L471" t="n">
+        <v>408.1447058823529</v>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18881,7 +19230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B535"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24239,6 +24588,96 @@
       </c>
       <c r="B535" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -24407,28 +24846,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08720209436399645</v>
+        <v>0.1128784571687929</v>
       </c>
       <c r="J2" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002341352614661285</v>
+        <v>0.004054034543352625</v>
       </c>
       <c r="M2" t="n">
-        <v>10.24624441691733</v>
+        <v>10.18480699852879</v>
       </c>
       <c r="N2" t="n">
-        <v>176.0153586625036</v>
+        <v>174.0596959013687</v>
       </c>
       <c r="O2" t="n">
-        <v>13.26707800016657</v>
+        <v>13.19316853153058</v>
       </c>
       <c r="P2" t="n">
-        <v>373.3014526443487</v>
+        <v>373.0579283511137</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24484,28 +24923,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1311547187458587</v>
+        <v>0.1344544390078773</v>
       </c>
       <c r="J3" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K3" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006541537164830635</v>
+        <v>0.00709748412685085</v>
       </c>
       <c r="M3" t="n">
-        <v>9.490558014854487</v>
+        <v>9.432153871427172</v>
       </c>
       <c r="N3" t="n">
-        <v>142.4086176081517</v>
+        <v>140.7302965670353</v>
       </c>
       <c r="O3" t="n">
-        <v>11.93350818528029</v>
+        <v>11.86298008794735</v>
       </c>
       <c r="P3" t="n">
-        <v>378.3442097219698</v>
+        <v>378.313220419766</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24561,28 +25000,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1237460230715355</v>
+        <v>0.1377358935431154</v>
       </c>
       <c r="J4" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006305434104267094</v>
+        <v>0.008054139839394736</v>
       </c>
       <c r="M4" t="n">
-        <v>8.910186049121602</v>
+        <v>8.827717030189593</v>
       </c>
       <c r="N4" t="n">
-        <v>132.2748960135487</v>
+        <v>130.664261122879</v>
       </c>
       <c r="O4" t="n">
-        <v>11.50108238443446</v>
+        <v>11.43084691188186</v>
       </c>
       <c r="P4" t="n">
-        <v>385.317326861787</v>
+        <v>385.1852733103418</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24638,28 +25077,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1883470764881348</v>
+        <v>0.1938261826158103</v>
       </c>
       <c r="J5" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K5" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01628452059639329</v>
+        <v>0.01778840181753483</v>
       </c>
       <c r="M5" t="n">
-        <v>8.645999502420768</v>
+        <v>8.585982465322472</v>
       </c>
       <c r="N5" t="n">
-        <v>118.1581702037938</v>
+        <v>116.746505792211</v>
       </c>
       <c r="O5" t="n">
-        <v>10.87005842688041</v>
+        <v>10.80492969862419</v>
       </c>
       <c r="P5" t="n">
-        <v>388.44367221026</v>
+        <v>388.3928579148164</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24715,28 +25154,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3208475369106403</v>
+        <v>0.3359918121822788</v>
       </c>
       <c r="J6" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04916878096561172</v>
+        <v>0.055120872886951</v>
       </c>
       <c r="M6" t="n">
-        <v>8.076230246368857</v>
+        <v>8.053715467357549</v>
       </c>
       <c r="N6" t="n">
-        <v>108.3555196523465</v>
+        <v>107.4645846241898</v>
       </c>
       <c r="O6" t="n">
-        <v>10.40939573905933</v>
+        <v>10.36651265489942</v>
       </c>
       <c r="P6" t="n">
-        <v>388.9907241819868</v>
+        <v>388.8472617788296</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24792,28 +25231,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2415567886980924</v>
+        <v>0.2741518937496398</v>
       </c>
       <c r="J7" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K7" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02870069289980037</v>
+        <v>0.03722469712355292</v>
       </c>
       <c r="M7" t="n">
-        <v>8.467092479523624</v>
+        <v>8.490497279315147</v>
       </c>
       <c r="N7" t="n">
-        <v>108.64287003908</v>
+        <v>108.9972069945433</v>
       </c>
       <c r="O7" t="n">
-        <v>10.42318905321591</v>
+        <v>10.44017274735161</v>
       </c>
       <c r="P7" t="n">
-        <v>388.2537097301723</v>
+        <v>387.9445464923205</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24869,28 +25308,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3017343356367099</v>
+        <v>0.3320610374230696</v>
       </c>
       <c r="J8" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0417080702156486</v>
+        <v>0.05103122225444057</v>
       </c>
       <c r="M8" t="n">
-        <v>8.642897896754901</v>
+        <v>8.65538637168304</v>
       </c>
       <c r="N8" t="n">
-        <v>114.9211407348867</v>
+        <v>114.8920872423705</v>
       </c>
       <c r="O8" t="n">
-        <v>10.72012783202172</v>
+        <v>10.71877265559684</v>
       </c>
       <c r="P8" t="n">
-        <v>383.3955909536485</v>
+        <v>383.1090337599285</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24946,28 +25385,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4088243863742703</v>
+        <v>0.435407170850351</v>
       </c>
       <c r="J9" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K9" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0650859761534982</v>
+        <v>0.07472307166308045</v>
       </c>
       <c r="M9" t="n">
-        <v>9.414571965038947</v>
+        <v>9.422287212036521</v>
       </c>
       <c r="N9" t="n">
-        <v>130.8750818961299</v>
+        <v>130.6870741346958</v>
       </c>
       <c r="O9" t="n">
-        <v>11.44006476800415</v>
+        <v>11.43184473891663</v>
       </c>
       <c r="P9" t="n">
-        <v>385.1305346222173</v>
+        <v>384.8819624514463</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25023,28 +25462,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2884562161828578</v>
+        <v>0.3277763069340653</v>
       </c>
       <c r="J10" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K10" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03402977643905847</v>
+        <v>0.04426873962042488</v>
       </c>
       <c r="M10" t="n">
-        <v>8.672024746571143</v>
+        <v>8.725378240160966</v>
       </c>
       <c r="N10" t="n">
-        <v>126.3519115248524</v>
+        <v>127.1242232191242</v>
       </c>
       <c r="O10" t="n">
-        <v>11.24063661563936</v>
+        <v>11.27493783659689</v>
       </c>
       <c r="P10" t="n">
-        <v>392.9126253172423</v>
+        <v>392.5391272141036</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25100,28 +25539,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3130646115073809</v>
+        <v>0.341166867387434</v>
       </c>
       <c r="J11" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K11" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04893237657345884</v>
+        <v>0.05935051141307623</v>
       </c>
       <c r="M11" t="n">
-        <v>8.16984857017601</v>
+        <v>8.179132758023517</v>
       </c>
       <c r="N11" t="n">
-        <v>105.6400437587481</v>
+        <v>105.139417393899</v>
       </c>
       <c r="O11" t="n">
-        <v>10.27813425475402</v>
+        <v>10.25375138151394</v>
       </c>
       <c r="P11" t="n">
-        <v>395.151197382752</v>
+        <v>394.8906496759014</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25177,28 +25616,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2974552664405007</v>
+        <v>0.3181938358032399</v>
       </c>
       <c r="J12" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K12" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03979990922204335</v>
+        <v>0.0460115513245547</v>
       </c>
       <c r="M12" t="n">
-        <v>8.614412298486057</v>
+        <v>8.67375490336577</v>
       </c>
       <c r="N12" t="n">
-        <v>118.8392016323272</v>
+        <v>119.711612191013</v>
       </c>
       <c r="O12" t="n">
-        <v>10.90133944212028</v>
+        <v>10.94128018976815</v>
       </c>
       <c r="P12" t="n">
-        <v>400.8821703420106</v>
+        <v>400.6893061000997</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25235,7 +25674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M462"/>
+  <dimension ref="A1:M471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51441,6 +51880,497 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-34.82210446017951,173.40829389129593</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-34.8226412787443,173.40770299828796</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-34.823318972456796,173.40744550309086</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-34.824004177148886,173.40727561456393</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-34.82469531427455,173.40712982436463</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-34.82540027092561,173.40713809645132</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-34.82611775950492,173.4071586855084</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-34.82681146905296,173.40722918000247</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-34.827400089791105,173.40757223092848</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-34.82790209523445,173.40802938575663</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-34.82825771127874,173.40873951868383</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-34.822150762329926,173.4083621267969</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-34.82270161248369,173.40781428004888</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-34.823358017696926,173.40756498724193</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-34.824006587474486,173.407288818053</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-34.82470597428244,173.40727187990143</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-34.822100506701084,173.4082880650591</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-34.822713362171285,173.4078359516445</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-34.823320733149416,173.40745089105783</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-34.82400712021472,173.40729173634446</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-34.824700841014966,173.4072034735675</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-34.82539933049743,173.40722833704825</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-34.8261156769008,173.4071906579853</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-34.82678813981713,173.4073545191793</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-34.82735072574849,173.40768180609302</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-34.82780903776485,173.40813587315128</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-34.828131445892424,173.40884539704894</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-34.82214151845537,173.40834850408388</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-34.82267818965664,173.40777107808606</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-34.82333366703497,173.40749047059575</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-34.82400927716227,173.40730355186645</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-34.82470476597755,173.4072557778867</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-34.82539906693111,173.40725362690864</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-34.82610722466784,173.40732041670023</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-34.82677873087378,173.40740506966384</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-34.827320762313796,173.40774831685064</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-34.827818666450156,173.40812485488348</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-34.82835856209011,173.40865495112658</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-34.825398681746925,173.4072905854072</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-34.82611323923904,173.40722808119892</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-34.826774012054685,173.40743042194228</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-34.827330398947915,173.40772692613157</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-34.82779394043404,173.40815314927534</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-34.82215742785008,173.4083719497881</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-34.82787475203875,173.40806067512034</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-34.82815284207912,173.40882745555461</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-34.82737041767622,173.40763809524526</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-34.82783712429042,173.40810373325368</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-34.82810940834093,173.4088638763394</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-34.82214824127339,173.40835841151124</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-34.82269887434205,173.40780922971243</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-34.823332803299856,173.4074878274413</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-34.82400635358851,173.40728753685184</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-34.82470419743143,173.40724820138328</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-34.8253993912195,173.40722251053933</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-34.826114826814496,173.40720370861104</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-34.82679664645459,173.40730881631617</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-34.82736770531549,173.40764411596874</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-34.82782514074886,173.40811744623167</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-34.82811297728135,173.40886088365355</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-34.82206244888609,173.40823197934884</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.822623201570295,173.40766965615413</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.82331041260814,173.4074193087641</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-34.82397725416893,173.40712813413393</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-34.82469335176898,173.40710367221016</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-34.82540044770627,173.40712113240596</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-34.82611952154576,173.40713163426872</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-34.82681236471656,173.40722436792487</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-34.82742711322929,173.40751224586984</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-34.82791941623125,173.40800956497944</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>-34.828237017548815,173.4087568711968</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -24691,7 +24691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24782,35 +24782,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24869,27 +24874,28 @@
       <c r="P2" t="n">
         <v>373.0579283511137</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.4050942357269 -34.819933187233865, 173.41293020048886 -34.82525028570414)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.4050942357269</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.81993318723386</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.4129302004889</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.82525028570414</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.4090122181079</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.82259173646901</v>
       </c>
     </row>
@@ -24946,27 +24952,28 @@
       <c r="P3" t="n">
         <v>378.313220419766</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.40427071193534 -34.820780298866026, 173.4127514101465 -34.82537818866439)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.4042707119353</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.82078029886603</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.4127514101465</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.82537818866439</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.4085110610409</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.82307924376521</v>
       </c>
     </row>
@@ -25023,27 +25030,28 @@
       <c r="P4" t="n">
         <v>385.1852733103418</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.40348435838825 -34.822024454965295, 173.41292245558725 -34.825108581403434)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.4034843583883</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.82202445496529</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.4129224555872</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.82510858140343</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.4082034069878</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.82356651818436</v>
       </c>
     </row>
@@ -25100,27 +25108,28 @@
       <c r="P5" t="n">
         <v>388.3928579148164</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.40304612392734 -34.823231993281645, 173.41295971795026 -34.825041676764044)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.4030461239273</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.82323199328165</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.4129597179503</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.82504167676404</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.4080029209388</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.82413683502284</v>
       </c>
     </row>
@@ -25177,27 +25186,28 @@
       <c r="P6" t="n">
         <v>388.8472617788296</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.40282658962207 -34.824372314693925, 173.4129390719761 -34.82513110911445)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.4028265896221</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.82437231469392</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.4129390719761</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.82513110911445</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.4078828307991</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.82475171190418</v>
       </c>
     </row>
@@ -25254,27 +25264,28 @@
       <c r="P7" t="n">
         <v>387.9445464923205</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.40278445693102 -34.82544556216666, 173.41293808772667 -34.825339691099714)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.402784456931</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.82544556216666</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.4129380877267</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.82533969109971</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.4078612723288</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.82539262663319</v>
       </c>
     </row>
@@ -25331,27 +25342,28 @@
       <c r="P8" t="n">
         <v>383.1090337599285</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.40284018968748 -34.82639897697667, 173.41296304966966 -34.825739538961685)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.4028401896875</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.82639897697667</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.4129630496697</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.82573953896168</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.4079016196786</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.82606925796918</v>
       </c>
     </row>
@@ -25408,27 +25420,28 @@
       <c r="P9" t="n">
         <v>384.8819624514463</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.40301857153088 -34.82759510215136, 173.4129231375734 -34.82575151590446)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.4030185715309</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.82759510215136</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.4129231375734</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.82575151590446</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.4079708545521</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.82667330902791</v>
       </c>
     </row>
@@ -25485,27 +25498,28 @@
       <c r="P10" t="n">
         <v>392.5391272141036</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.40370457374058 -34.82914238373021, 173.41261265611325 -34.82512919549701)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.4037045737406</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.82914238373021</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.4126126561133</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.82512919549701</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.4081586149269</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.82713578961361</v>
       </c>
     </row>
@@ -25562,27 +25576,28 @@
       <c r="P11" t="n">
         <v>394.8906496759014</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.40501683263187 -34.83053458744554, 173.41198000892518 -34.82444951244074)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.4050168326319</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.83053458744554</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.4119800089252</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.82444951244074</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.4084984207785</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.82749204994314</v>
       </c>
     </row>
@@ -25639,27 +25654,28 @@
       <c r="P12" t="n">
         <v>400.6893061000997</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.40621830743538 -34.83126424429718, 173.41198732747532 -34.824384315567265)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.4062183074354</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.83126424429718</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.4119873274753</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.82438431556726</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.4091028174553</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.82782427993222</v>
       </c>
     </row>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M471"/>
+  <dimension ref="A1:M477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19219,6 +19219,268 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>384.0155555555555</v>
+      </c>
+      <c r="C472" t="n">
+        <v>390.4145454545454</v>
+      </c>
+      <c r="D472" t="n">
+        <v>398.5466666666667</v>
+      </c>
+      <c r="E472" t="n">
+        <v>403.5733333333333</v>
+      </c>
+      <c r="F472" t="n">
+        <v>405.0957142857143</v>
+      </c>
+      <c r="G472" t="n">
+        <v>406.6557142857143</v>
+      </c>
+      <c r="H472" t="n">
+        <v>404.1657142857143</v>
+      </c>
+      <c r="I472" t="n">
+        <v>405.6377777777778</v>
+      </c>
+      <c r="J472" t="n">
+        <v>414.5826315789473</v>
+      </c>
+      <c r="K472" t="n">
+        <v>418.6238095238096</v>
+      </c>
+      <c r="L472" t="n">
+        <v>428.2805882352941</v>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>385.1922222222223</v>
+      </c>
+      <c r="C473" t="n">
+        <v>392.7563636363636</v>
+      </c>
+      <c r="D473" t="n">
+        <v>394.2566666666667</v>
+      </c>
+      <c r="E473" t="n">
+        <v>404.5733333333333</v>
+      </c>
+      <c r="F473" t="n">
+        <v>406.75</v>
+      </c>
+      <c r="G473" t="n">
+        <v>405.94</v>
+      </c>
+      <c r="H473" t="n">
+        <v>400.33</v>
+      </c>
+      <c r="I473" t="n">
+        <v>403.8611111111111</v>
+      </c>
+      <c r="J473" t="n">
+        <v>408.4057894736842</v>
+      </c>
+      <c r="K473" t="n">
+        <v>412.4066666666667</v>
+      </c>
+      <c r="L473" t="n">
+        <v>423.7123529411765</v>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>376.3622222222222</v>
+      </c>
+      <c r="C474" t="n">
+        <v>385.5936363636364</v>
+      </c>
+      <c r="D474" t="n">
+        <v>392.9166666666667</v>
+      </c>
+      <c r="E474" t="n">
+        <v>396.6933333333333</v>
+      </c>
+      <c r="F474" t="n">
+        <v>403.6285714285714</v>
+      </c>
+      <c r="G474" t="n">
+        <v>404.4285714285714</v>
+      </c>
+      <c r="H474" t="n">
+        <v>401.6985714285714</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>371.1355555555555</v>
+      </c>
+      <c r="C475" t="n">
+        <v>385.8327272727273</v>
+      </c>
+      <c r="D475" t="n">
+        <v>390.9266666666667</v>
+      </c>
+      <c r="E475" t="n">
+        <v>395.3733333333333</v>
+      </c>
+      <c r="F475" t="n">
+        <v>397.83</v>
+      </c>
+      <c r="G475" t="n">
+        <v>395.82</v>
+      </c>
+      <c r="H475" t="n">
+        <v>390.3</v>
+      </c>
+      <c r="I475" t="n">
+        <v>397.6277777777778</v>
+      </c>
+      <c r="J475" t="n">
+        <v>402.1868421052632</v>
+      </c>
+      <c r="K475" t="n">
+        <v>400.9366666666667</v>
+      </c>
+      <c r="L475" t="n">
+        <v>405.6035294117647</v>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>352.4633333333333</v>
+      </c>
+      <c r="C476" t="n">
+        <v>356.7236363636364</v>
+      </c>
+      <c r="D476" t="n">
+        <v>365.75</v>
+      </c>
+      <c r="E476" t="n">
+        <v>371.14</v>
+      </c>
+      <c r="F476" t="n">
+        <v>377.3785714285714</v>
+      </c>
+      <c r="G476" t="n">
+        <v>368.6585714285715</v>
+      </c>
+      <c r="H476" t="n">
+        <v>368.6885714285714</v>
+      </c>
+      <c r="I476" t="n">
+        <v>376.6366666666667</v>
+      </c>
+      <c r="J476" t="n">
+        <v>383.7863157894737</v>
+      </c>
+      <c r="K476" t="n">
+        <v>384.7957142857143</v>
+      </c>
+      <c r="L476" t="n">
+        <v>397.1035294117647</v>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>370.2744444444445</v>
+      </c>
+      <c r="C477" t="n">
+        <v>392.5709090909091</v>
+      </c>
+      <c r="D477" t="n">
+        <v>396.3533333333333</v>
+      </c>
+      <c r="E477" t="n">
+        <v>394.0966666666667</v>
+      </c>
+      <c r="F477" t="n">
+        <v>394.8642857142857</v>
+      </c>
+      <c r="G477" t="n">
+        <v>386.3142857142857</v>
+      </c>
+      <c r="H477" t="n">
+        <v>385.4242857142857</v>
+      </c>
+      <c r="I477" t="n">
+        <v>387.2322222222222</v>
+      </c>
+      <c r="J477" t="n">
+        <v>397.5657894736842</v>
+      </c>
+      <c r="K477" t="n">
+        <v>400.1961904761905</v>
+      </c>
+      <c r="L477" t="n">
+        <v>408.5376470588236</v>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19230,7 +19492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B544"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24678,6 +24940,66 @@
       </c>
       <c r="B544" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -24851,28 +25173,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1128784571687929</v>
+        <v>0.1041496139794767</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004054034543352625</v>
+        <v>0.003535515523919841</v>
       </c>
       <c r="M2" t="n">
-        <v>10.18480699852879</v>
+        <v>10.16410017867221</v>
       </c>
       <c r="N2" t="n">
-        <v>174.0596959013687</v>
+        <v>173.2728016937808</v>
       </c>
       <c r="O2" t="n">
-        <v>13.19316853153058</v>
+        <v>13.16331271731325</v>
       </c>
       <c r="P2" t="n">
-        <v>373.0579283511137</v>
+        <v>373.14247750249</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24929,28 +25251,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1344544390078773</v>
+        <v>0.1415940203096054</v>
       </c>
       <c r="J3" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00709748412685085</v>
+        <v>0.008000661904640549</v>
       </c>
       <c r="M3" t="n">
-        <v>9.432153871427172</v>
+        <v>9.44608934971134</v>
       </c>
       <c r="N3" t="n">
-        <v>140.7302965670353</v>
+        <v>141.0861119239014</v>
       </c>
       <c r="O3" t="n">
-        <v>11.86298008794735</v>
+        <v>11.87796749969882</v>
       </c>
       <c r="P3" t="n">
-        <v>378.313220419766</v>
+        <v>378.2452903502596</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25007,28 +25329,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1377358935431154</v>
+        <v>0.1410673511784014</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008054139839394736</v>
+        <v>0.008617080929440024</v>
       </c>
       <c r="M4" t="n">
-        <v>8.827717030189593</v>
+        <v>8.823067064871548</v>
       </c>
       <c r="N4" t="n">
-        <v>130.664261122879</v>
+        <v>130.5291044125289</v>
       </c>
       <c r="O4" t="n">
-        <v>11.43084691188186</v>
+        <v>11.42493345330855</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1852733103418</v>
+        <v>385.1539111151223</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25085,28 +25407,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1938261826158103</v>
+        <v>0.1964698335710971</v>
       </c>
       <c r="J5" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K5" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01778840181753483</v>
+        <v>0.01860706157939429</v>
       </c>
       <c r="M5" t="n">
-        <v>8.585982465322472</v>
+        <v>8.57870855648663</v>
       </c>
       <c r="N5" t="n">
-        <v>116.746505792211</v>
+        <v>116.857283669511</v>
       </c>
       <c r="O5" t="n">
-        <v>10.80492969862419</v>
+        <v>10.81005474868241</v>
       </c>
       <c r="P5" t="n">
-        <v>388.3928579148164</v>
+        <v>388.3685464246943</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25163,28 +25485,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3359918121822788</v>
+        <v>0.3362071050677017</v>
       </c>
       <c r="J6" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K6" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L6" t="n">
-        <v>0.055120872886951</v>
+        <v>0.05627107427719025</v>
       </c>
       <c r="M6" t="n">
-        <v>8.053715467357549</v>
+        <v>8.047876013514708</v>
       </c>
       <c r="N6" t="n">
-        <v>107.4645846241898</v>
+        <v>107.3268791012311</v>
       </c>
       <c r="O6" t="n">
-        <v>10.36651265489942</v>
+        <v>10.35986868165958</v>
       </c>
       <c r="P6" t="n">
-        <v>388.8472617788296</v>
+        <v>388.8459080141872</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25241,28 +25563,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2741518937496398</v>
+        <v>0.2728645888689451</v>
       </c>
       <c r="J7" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K7" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03722469712355292</v>
+        <v>0.03713008444231647</v>
       </c>
       <c r="M7" t="n">
-        <v>8.490497279315147</v>
+        <v>8.536855398770918</v>
       </c>
       <c r="N7" t="n">
-        <v>108.9972069945433</v>
+        <v>110.2509859630354</v>
       </c>
       <c r="O7" t="n">
-        <v>10.44017274735161</v>
+        <v>10.50004695051576</v>
       </c>
       <c r="P7" t="n">
-        <v>387.9445464923205</v>
+        <v>387.9579380760241</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25319,28 +25641,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3320610374230696</v>
+        <v>0.3322792322757103</v>
       </c>
       <c r="J8" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K8" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05103122225444057</v>
+        <v>0.05176812874866887</v>
       </c>
       <c r="M8" t="n">
-        <v>8.65538637168304</v>
+        <v>8.68271282585102</v>
       </c>
       <c r="N8" t="n">
-        <v>114.8920872423705</v>
+        <v>115.4781547078745</v>
       </c>
       <c r="O8" t="n">
-        <v>10.71877265559684</v>
+        <v>10.74607624707151</v>
       </c>
       <c r="P8" t="n">
-        <v>383.1090337599285</v>
+        <v>383.107891631936</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25397,28 +25719,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.435407170850351</v>
+        <v>0.4303152289629873</v>
       </c>
       <c r="J9" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K9" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07472307166308045</v>
+        <v>0.07432670876611713</v>
       </c>
       <c r="M9" t="n">
-        <v>9.422287212036521</v>
+        <v>9.419809873236099</v>
       </c>
       <c r="N9" t="n">
-        <v>130.6870741346958</v>
+        <v>130.5772844486273</v>
       </c>
       <c r="O9" t="n">
-        <v>11.43184473891663</v>
+        <v>11.42704180654938</v>
       </c>
       <c r="P9" t="n">
-        <v>384.8819624514463</v>
+        <v>384.9308328041297</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25475,28 +25797,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3277763069340653</v>
+        <v>0.3285416200666793</v>
       </c>
       <c r="J10" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K10" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04426873962042488</v>
+        <v>0.04525213887317792</v>
       </c>
       <c r="M10" t="n">
-        <v>8.725378240160966</v>
+        <v>8.723687535237094</v>
       </c>
       <c r="N10" t="n">
-        <v>127.1242232191242</v>
+        <v>126.8998314546445</v>
       </c>
       <c r="O10" t="n">
-        <v>11.27493783659689</v>
+        <v>11.26498253237192</v>
       </c>
       <c r="P10" t="n">
-        <v>392.5391272141036</v>
+        <v>392.5324573884393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25553,28 +25875,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.341166867387434</v>
+        <v>0.3403215577763141</v>
       </c>
       <c r="J11" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K11" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05935051141307623</v>
+        <v>0.05975833889280402</v>
       </c>
       <c r="M11" t="n">
-        <v>8.179132758023517</v>
+        <v>8.200306249169461</v>
       </c>
       <c r="N11" t="n">
-        <v>105.139417393899</v>
+        <v>105.5528629208</v>
       </c>
       <c r="O11" t="n">
-        <v>10.25375138151394</v>
+        <v>10.27389229653494</v>
       </c>
       <c r="P11" t="n">
-        <v>394.8906496759014</v>
+        <v>394.8993500661256</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25631,28 +25953,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3181938358032399</v>
+        <v>0.3280215252060713</v>
       </c>
       <c r="J12" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K12" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0460115513245547</v>
+        <v>0.04936226431004032</v>
       </c>
       <c r="M12" t="n">
-        <v>8.67375490336577</v>
+        <v>8.695907407608662</v>
       </c>
       <c r="N12" t="n">
-        <v>119.711612191013</v>
+        <v>120.1164588062585</v>
       </c>
       <c r="O12" t="n">
-        <v>10.94128018976815</v>
+        <v>10.95976545398023</v>
       </c>
       <c r="P12" t="n">
-        <v>400.6893061000997</v>
+        <v>400.5980521659449</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25690,7 +26012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M471"/>
+  <dimension ref="A1:M477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52387,6 +52709,392 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-34.822133516008975,173.40833671086992</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.82271441599513,173.40783789536013</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.823348516625565,173.40753591252897</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-34.82401865207451,173.40735490668737</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-34.82470344442813,173.40723816679474</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-34.825399302496805,173.40723102380304</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-34.82611205844497,173.40724620879718</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-34.826789796583185,173.40734561802597</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-34.82735004310686,173.4076833213751</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-34.82778903083399,173.4081587674095</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-34.828087667471166,173.40888210683949</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.822140257926904,173.40834664644143</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.82272601706233,173.40785929284863</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.82333426500539,173.40749230047194</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-34.82402060111797,173.40736558336675</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-34.82470479633113,173.40725618238173</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-34.82539938405658,173.40722319784868</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-34.82611478217984,173.40720439384674</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-34.8267933241029,173.40732666603515</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-34.82737674803377,173.40762404352154</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-34.827829806740986,173.40811210685524</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>-34.828121550591476,173.40885369462111</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-34.822089664873914,173.40827208747532</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.8226905338172,173.4077938461238</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.82332981344713,173.4074786780609</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-34.82400524262992,173.40728145114662</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-34.82470224545837,173.40722218924094</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-34.825399556290954,173.4072066711825</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-34.826113810361,173.40721931329682</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-34.8220597177371,173.40822795446462</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-34.8226917182439,173.4077960307261</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-34.82332320254809,173.4074584477666</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-34.82400266988255,173.40726735793504</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-34.82469750676375,173.40715904134765</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-34.82540053723516,173.40711254103857</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-34.826121904399756,173.40709505202037</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-34.82680570018062,173.40726017404677</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-34.827403634969336,173.4075643615537</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-34.82790503411999,173.4080260227296</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-34.828255865727975,173.4087410662518</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-34.82195273171172,173.40807028991978</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-34.82254751512509,173.40753005793087</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-34.8232395638622,173.40720250262814</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-34.82395543758775,173.40700862665383</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-34.8246807932343,173.40693632023</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-34.825403631794764,173.40681554526296</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-34.82613725016259,173.40685945543547</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-34.826847377072944,173.40703625827504</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-34.8274831874523,173.40738777523217</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-34.8280108964009,173.40790488211812</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-34.828318911127056,173.40868820012193</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-34.822054783842866,173.40822068340407</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-34.82272509834441,173.40785759832679</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-34.823341230251415,173.40751361514285</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-34.82400018159251,173.40725372738027</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-34.82469508311714,173.40712674397994</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-34.825401620323966,173.40700860111184</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-34.82612536656863,173.40704189952018</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-34.82682634013269,173.40714928290672</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-34.827423613563724,173.40752001423013</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-34.827909890620354,173.40802046533577</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-34.828234103061675,173.40875931510894</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M477"/>
+  <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19481,6 +19481,141 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>352.27</v>
+      </c>
+      <c r="C478" t="n">
+        <v>357.8927272727273</v>
+      </c>
+      <c r="D478" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="E478" t="n">
+        <v>372.38</v>
+      </c>
+      <c r="F478" t="n">
+        <v>382.7514285714286</v>
+      </c>
+      <c r="G478" t="n">
+        <v>385.3314285714285</v>
+      </c>
+      <c r="H478" t="n">
+        <v>375.9114285714285</v>
+      </c>
+      <c r="I478" t="n">
+        <v>381.37</v>
+      </c>
+      <c r="J478" t="n">
+        <v>387.5847368421053</v>
+      </c>
+      <c r="K478" t="n">
+        <v>388.8942857142857</v>
+      </c>
+      <c r="L478" t="n">
+        <v>397.8376470588236</v>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>373.9455555555555</v>
+      </c>
+      <c r="C479" t="n">
+        <v>384.0636363636364</v>
+      </c>
+      <c r="D479" t="n">
+        <v>390.3666666666667</v>
+      </c>
+      <c r="E479" t="n">
+        <v>396.4433333333333</v>
+      </c>
+      <c r="F479" t="n">
+        <v>389.7528571428572</v>
+      </c>
+      <c r="G479" t="n">
+        <v>384.9528571428572</v>
+      </c>
+      <c r="H479" t="n">
+        <v>383.5128571428572</v>
+      </c>
+      <c r="I479" t="n">
+        <v>390.6577777777778</v>
+      </c>
+      <c r="J479" t="n">
+        <v>394.1047368421053</v>
+      </c>
+      <c r="K479" t="n">
+        <v>400.5352380952381</v>
+      </c>
+      <c r="L479" t="n">
+        <v>404.8370588235294</v>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>384.6677777777778</v>
+      </c>
+      <c r="C480" t="n">
+        <v>388.43</v>
+      </c>
+      <c r="D480" t="n">
+        <v>400.8933333333333</v>
+      </c>
+      <c r="E480" t="n">
+        <v>399.7666666666667</v>
+      </c>
+      <c r="F480" t="n">
+        <v>391.3428571428572</v>
+      </c>
+      <c r="G480" t="n">
+        <v>385.4728571428572</v>
+      </c>
+      <c r="H480" t="n">
+        <v>382.9628571428572</v>
+      </c>
+      <c r="I480" t="n">
+        <v>395.0188888888889</v>
+      </c>
+      <c r="J480" t="n">
+        <v>397.7005263157895</v>
+      </c>
+      <c r="K480" t="n">
+        <v>403.7419047619048</v>
+      </c>
+      <c r="L480" t="n">
+        <v>409.4594117647059</v>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19492,7 +19627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25000,6 +25135,56 @@
       </c>
       <c r="B550" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -25173,28 +25358,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1041496139794767</v>
+        <v>0.09556488782030974</v>
       </c>
       <c r="J2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003535515523919841</v>
+        <v>0.003000202005547958</v>
       </c>
       <c r="M2" t="n">
-        <v>10.16410017867221</v>
+        <v>10.17907459969671</v>
       </c>
       <c r="N2" t="n">
-        <v>173.2728016937808</v>
+        <v>173.583243967032</v>
       </c>
       <c r="O2" t="n">
-        <v>13.16331271731325</v>
+        <v>13.17509939116332</v>
       </c>
       <c r="P2" t="n">
-        <v>373.14247750249</v>
+        <v>373.2252042001476</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25251,28 +25436,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1415940203096054</v>
+        <v>0.1333927445849069</v>
       </c>
       <c r="J3" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008000661904640549</v>
+        <v>0.007145739602917422</v>
       </c>
       <c r="M3" t="n">
-        <v>9.44608934971134</v>
+        <v>9.464833017027575</v>
       </c>
       <c r="N3" t="n">
-        <v>141.0861119239014</v>
+        <v>141.6446231699211</v>
       </c>
       <c r="O3" t="n">
-        <v>11.87796749969882</v>
+        <v>11.90145466612889</v>
       </c>
       <c r="P3" t="n">
-        <v>378.2452903502596</v>
+        <v>378.3242959704355</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25329,28 +25514,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1410673511784014</v>
+        <v>0.1418225402128859</v>
       </c>
       <c r="J4" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008617080929440024</v>
+        <v>0.008805843770868571</v>
       </c>
       <c r="M4" t="n">
-        <v>8.823067064871548</v>
+        <v>8.820879743881227</v>
       </c>
       <c r="N4" t="n">
-        <v>130.5291044125289</v>
+        <v>130.2723723753857</v>
       </c>
       <c r="O4" t="n">
-        <v>11.42493345330855</v>
+        <v>11.41369231998943</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1539111151223</v>
+        <v>385.1465649038917</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25407,28 +25592,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1964698335710971</v>
+        <v>0.1903174238714352</v>
       </c>
       <c r="J5" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01860706157939429</v>
+        <v>0.01758466859533869</v>
       </c>
       <c r="M5" t="n">
-        <v>8.57870855648663</v>
+        <v>8.596807732893643</v>
       </c>
       <c r="N5" t="n">
-        <v>116.857283669511</v>
+        <v>117.2458810087909</v>
       </c>
       <c r="O5" t="n">
-        <v>10.81005474868241</v>
+        <v>10.82801371484128</v>
       </c>
       <c r="P5" t="n">
-        <v>388.3685464246943</v>
+        <v>388.4270708009163</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25485,28 +25670,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3362071050677017</v>
+        <v>0.3212153220597814</v>
       </c>
       <c r="J6" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K6" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05627107427719025</v>
+        <v>0.05208687490702724</v>
       </c>
       <c r="M6" t="n">
-        <v>8.047876013514708</v>
+        <v>8.060188212634817</v>
       </c>
       <c r="N6" t="n">
-        <v>107.3268791012311</v>
+        <v>107.2937723383943</v>
       </c>
       <c r="O6" t="n">
-        <v>10.35986868165958</v>
+        <v>10.35827072142809</v>
       </c>
       <c r="P6" t="n">
-        <v>388.8459080141872</v>
+        <v>388.9905038839643</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25563,28 +25748,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2728645888689451</v>
+        <v>0.2580264129460318</v>
       </c>
       <c r="J7" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K7" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03713008444231647</v>
+        <v>0.03365643643717176</v>
       </c>
       <c r="M7" t="n">
-        <v>8.536855398770918</v>
+        <v>8.547699885891317</v>
       </c>
       <c r="N7" t="n">
-        <v>110.2509859630354</v>
+        <v>110.109924056776</v>
       </c>
       <c r="O7" t="n">
-        <v>10.50004695051576</v>
+        <v>10.4933275969435</v>
       </c>
       <c r="P7" t="n">
-        <v>387.9579380760241</v>
+        <v>388.1010491174461</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25641,28 +25826,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3322792322757103</v>
+        <v>0.3154284738464744</v>
       </c>
       <c r="J8" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05176812874866887</v>
+        <v>0.04725767950320281</v>
       </c>
       <c r="M8" t="n">
-        <v>8.68271282585102</v>
+        <v>8.696872537649465</v>
       </c>
       <c r="N8" t="n">
-        <v>115.4781547078745</v>
+        <v>115.5766972755588</v>
       </c>
       <c r="O8" t="n">
-        <v>10.74607624707151</v>
+        <v>10.75066031811808</v>
       </c>
       <c r="P8" t="n">
-        <v>383.107891631936</v>
+        <v>383.2697535972831</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25719,28 +25904,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4303152289629873</v>
+        <v>0.4193663244370489</v>
       </c>
       <c r="J9" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K9" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07432670876611713</v>
+        <v>0.0717083207289112</v>
       </c>
       <c r="M9" t="n">
-        <v>9.419809873236099</v>
+        <v>9.393148659484757</v>
       </c>
       <c r="N9" t="n">
-        <v>130.5772844486273</v>
+        <v>130.1781613465819</v>
       </c>
       <c r="O9" t="n">
-        <v>11.42704180654938</v>
+        <v>11.40956446787439</v>
       </c>
       <c r="P9" t="n">
-        <v>384.9308328041297</v>
+        <v>385.0348427159481</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25797,28 +25982,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3285416200666793</v>
+        <v>0.3163120536621714</v>
       </c>
       <c r="J10" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K10" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04525213887317792</v>
+        <v>0.04259713002793331</v>
       </c>
       <c r="M10" t="n">
-        <v>8.723687535237094</v>
+        <v>8.715323256893653</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8998314546445</v>
+        <v>126.5155221124454</v>
       </c>
       <c r="O10" t="n">
-        <v>11.26498253237192</v>
+        <v>11.24791190010152</v>
       </c>
       <c r="P10" t="n">
-        <v>392.5324573884393</v>
+        <v>392.6504594535563</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25875,28 +26060,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3403215577763141</v>
+        <v>0.331144244683552</v>
       </c>
       <c r="J11" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K11" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05975833889280402</v>
+        <v>0.05738733664403661</v>
       </c>
       <c r="M11" t="n">
-        <v>8.200306249169461</v>
+        <v>8.17744214015123</v>
       </c>
       <c r="N11" t="n">
-        <v>105.5528629208</v>
+        <v>105.3080694604991</v>
       </c>
       <c r="O11" t="n">
-        <v>10.27389229653494</v>
+        <v>10.26197200641763</v>
       </c>
       <c r="P11" t="n">
-        <v>394.8993500661256</v>
+        <v>394.9857847440019</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25953,28 +26138,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3280215252060713</v>
+        <v>0.320195121871002</v>
       </c>
       <c r="J12" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04936226431004032</v>
+        <v>0.04779671266885999</v>
       </c>
       <c r="M12" t="n">
-        <v>8.695907407608662</v>
+        <v>8.663930540769842</v>
       </c>
       <c r="N12" t="n">
-        <v>120.1164588062585</v>
+        <v>119.5200799234728</v>
       </c>
       <c r="O12" t="n">
-        <v>10.95976545398023</v>
+        <v>10.93252395028124</v>
       </c>
       <c r="P12" t="n">
-        <v>400.5980521659449</v>
+        <v>400.6717598957942</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26012,7 +26197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M477"/>
+  <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53095,6 +53280,207 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-34.82195162397075,173.40806865745355</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-34.822553306679616,173.40754074001848</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-34.823275375859076,173.40731209167933</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-34.82395785443937,173.40702186571647</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-34.824685184136115,173.40699483196542</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-34.82540173230643,173.40699785409186</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-34.82613212143375,173.40693819528792</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-34.826837979291675,173.40708674957116</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-34.827466765452364,173.4074242279784</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-34.827984015463166,173.40793564262785</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-34.82831346609973,173.4086927660026</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-34.82207581814496,173.40825168158312</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-34.822682954386046,173.40777986633188</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-34.82332134219398,173.40745275482004</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-34.82400475536729,173.40727878197768</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-34.824690905925735,173.4070710792531</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-34.82540177543896,173.40699371461469</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-34.82612672383801,173.40702106211918</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-34.82681953884282,173.40718582389036</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-34.8274385770198,173.40748679918184</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-34.82790766693662,173.40802300994318</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-34.82826155072234,173.408736299157</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-34.82213725303063,173.4083422181223</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-34.82270458480825,173.4078197623224</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-34.82335631237694,173.4075597687032</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-34.82401123270708,173.40731426413237</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-34.82469220531752,173.40708839474746</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-34.82540171619274,173.40699940053807</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-34.82612711438196,173.40701506630487</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-34.82681088003271,173.40723234459537</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-34.827423031044574,173.4075213072731</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-34.827886635633064,173.40804707649022</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-34.82822726623311,173.4087650480579</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M480"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19616,6 +19616,51 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>380.1033333333333</v>
+      </c>
+      <c r="C481" t="n">
+        <v>390.33</v>
+      </c>
+      <c r="D481" t="n">
+        <v>396.77</v>
+      </c>
+      <c r="E481" t="n">
+        <v>398.86</v>
+      </c>
+      <c r="F481" t="n">
+        <v>392.2214285714285</v>
+      </c>
+      <c r="G481" t="n">
+        <v>382.4814285714286</v>
+      </c>
+      <c r="H481" t="n">
+        <v>378.3414285714285</v>
+      </c>
+      <c r="I481" t="n">
+        <v>386.7266666666667</v>
+      </c>
+      <c r="J481" t="n">
+        <v>391.9326315789473</v>
+      </c>
+      <c r="K481" t="n">
+        <v>396.2242857142857</v>
+      </c>
+      <c r="L481" t="n">
+        <v>408.6952941176471</v>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19627,7 +19672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25185,6 +25230,16 @@
       </c>
       <c r="B555" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -25358,28 +25413,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09556488782030974</v>
+        <v>0.09783909818398184</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003000202005547958</v>
+        <v>0.003161165161044144</v>
       </c>
       <c r="M2" t="n">
-        <v>10.17907459969671</v>
+        <v>10.16213462486889</v>
       </c>
       <c r="N2" t="n">
-        <v>173.583243967032</v>
+        <v>173.1661380261159</v>
       </c>
       <c r="O2" t="n">
-        <v>13.17509939116332</v>
+        <v>13.1592605425273</v>
       </c>
       <c r="P2" t="n">
-        <v>373.2252042001476</v>
+        <v>373.2032059158917</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25436,28 +25491,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1333927445849069</v>
+        <v>0.1379677178193157</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K3" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007145739602917422</v>
+        <v>0.007674242623731065</v>
       </c>
       <c r="M3" t="n">
-        <v>9.464833017027575</v>
+        <v>9.458478149670709</v>
       </c>
       <c r="N3" t="n">
-        <v>141.6446231699211</v>
+        <v>141.4505763749041</v>
       </c>
       <c r="O3" t="n">
-        <v>11.90145466612889</v>
+        <v>11.89329964202131</v>
       </c>
       <c r="P3" t="n">
-        <v>378.3242959704355</v>
+        <v>378.2800497698197</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25514,28 +25569,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1418225402128859</v>
+        <v>0.1460011125264205</v>
       </c>
       <c r="J4" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008805843770868571</v>
+        <v>0.009368629223640568</v>
       </c>
       <c r="M4" t="n">
-        <v>8.820879743881227</v>
+        <v>8.814466512569465</v>
       </c>
       <c r="N4" t="n">
-        <v>130.2723723753857</v>
+        <v>130.0853220880841</v>
       </c>
       <c r="O4" t="n">
-        <v>11.41369231998943</v>
+        <v>11.40549525834297</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1465649038917</v>
+        <v>385.1062536965344</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25592,28 +25647,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1903174238714352</v>
+        <v>0.1932048080473818</v>
       </c>
       <c r="J5" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K5" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01758466859533869</v>
+        <v>0.01820375980452826</v>
       </c>
       <c r="M5" t="n">
-        <v>8.596807732893643</v>
+        <v>8.585722499347353</v>
       </c>
       <c r="N5" t="n">
-        <v>117.2458810087909</v>
+        <v>117.005825496158</v>
       </c>
       <c r="O5" t="n">
-        <v>10.82801371484128</v>
+        <v>10.81692310669527</v>
       </c>
       <c r="P5" t="n">
-        <v>388.4270708009163</v>
+        <v>388.3994886899602</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25670,28 +25725,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3212153220597814</v>
+        <v>0.3185749835776147</v>
       </c>
       <c r="J6" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05208687490702724</v>
+        <v>0.05152587372116957</v>
       </c>
       <c r="M6" t="n">
-        <v>8.060188212634817</v>
+        <v>8.05204235142811</v>
       </c>
       <c r="N6" t="n">
-        <v>107.2937723383943</v>
+        <v>107.0716704671844</v>
       </c>
       <c r="O6" t="n">
-        <v>10.35827072142809</v>
+        <v>10.34754417565754</v>
       </c>
       <c r="P6" t="n">
-        <v>388.9905038839643</v>
+        <v>389.0160382544971</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25748,28 +25803,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2580264129460318</v>
+        <v>0.2518122599527241</v>
       </c>
       <c r="J7" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K7" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03365643643717176</v>
+        <v>0.03216482502661255</v>
       </c>
       <c r="M7" t="n">
-        <v>8.547699885891317</v>
+        <v>8.558301798161612</v>
       </c>
       <c r="N7" t="n">
-        <v>110.109924056776</v>
+        <v>110.2165702856016</v>
       </c>
       <c r="O7" t="n">
-        <v>10.4933275969435</v>
+        <v>10.49840798814761</v>
       </c>
       <c r="P7" t="n">
-        <v>388.1010491174461</v>
+        <v>388.1611345086859</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25826,28 +25881,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3154284738464744</v>
+        <v>0.308701836080471</v>
       </c>
       <c r="J8" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04725767950320281</v>
+        <v>0.04542683298284123</v>
       </c>
       <c r="M8" t="n">
-        <v>8.696872537649465</v>
+        <v>8.707844603164421</v>
       </c>
       <c r="N8" t="n">
-        <v>115.5766972755588</v>
+        <v>115.7237337967649</v>
       </c>
       <c r="O8" t="n">
-        <v>10.75066031811808</v>
+        <v>10.75749663243103</v>
       </c>
       <c r="P8" t="n">
-        <v>383.2697535972831</v>
+        <v>383.3345400947545</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25904,28 +25959,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4193663244370489</v>
+        <v>0.4146246487167779</v>
       </c>
       <c r="J9" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K9" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0717083207289112</v>
+        <v>0.0704809920661873</v>
       </c>
       <c r="M9" t="n">
-        <v>9.393148659484757</v>
+        <v>9.389348487269276</v>
       </c>
       <c r="N9" t="n">
-        <v>130.1781613465819</v>
+        <v>130.0536221583577</v>
       </c>
       <c r="O9" t="n">
-        <v>11.40956446787439</v>
+        <v>11.40410549575712</v>
       </c>
       <c r="P9" t="n">
-        <v>385.0348427159481</v>
+        <v>385.0800132474022</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25982,28 +26037,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3163120536621714</v>
+        <v>0.3117257971057023</v>
       </c>
       <c r="J10" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K10" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04259713002793331</v>
+        <v>0.0415859180219772</v>
       </c>
       <c r="M10" t="n">
-        <v>8.715323256893653</v>
+        <v>8.715117357195528</v>
       </c>
       <c r="N10" t="n">
-        <v>126.5155221124454</v>
+        <v>126.3899127233037</v>
       </c>
       <c r="O10" t="n">
-        <v>11.24791190010152</v>
+        <v>11.24232683759477</v>
       </c>
       <c r="P10" t="n">
-        <v>392.6504594535563</v>
+        <v>392.6948285783014</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26060,28 +26115,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.331144244683552</v>
+        <v>0.3273951082082229</v>
       </c>
       <c r="J11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K11" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05738733664403661</v>
+        <v>0.05640064872340533</v>
       </c>
       <c r="M11" t="n">
-        <v>8.17744214015123</v>
+        <v>8.173287169839623</v>
       </c>
       <c r="N11" t="n">
-        <v>105.3080694604991</v>
+        <v>105.1680606213236</v>
       </c>
       <c r="O11" t="n">
-        <v>10.26197200641763</v>
+        <v>10.25514800582242</v>
       </c>
       <c r="P11" t="n">
-        <v>394.9857847440019</v>
+        <v>395.021204155892</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26138,28 +26193,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.320195121871002</v>
+        <v>0.3200614162908154</v>
       </c>
       <c r="J12" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K12" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04779671266885999</v>
+        <v>0.04802363958694222</v>
       </c>
       <c r="M12" t="n">
-        <v>8.663930540769842</v>
+        <v>8.640952764468576</v>
       </c>
       <c r="N12" t="n">
-        <v>119.5200799234728</v>
+        <v>119.1945921638098</v>
       </c>
       <c r="O12" t="n">
-        <v>10.93252395028124</v>
+        <v>10.91762758862061</v>
       </c>
       <c r="P12" t="n">
-        <v>400.6717598957942</v>
+        <v>400.6730228950266</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26197,7 +26252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M480"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33244,7 +33299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>-34.823965494799445,173.40706371824209</t>
+          <t>-34.82396549479945,173.40706371824209</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -34450,7 +34505,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.822709687298165,173.4078291735595</t>
+          <t>-34.82270968729816,173.4078291735595</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -42784,7 +42839,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>-34.82401680048233,173.4073447638424</t>
+          <t>-34.824016800482326,173.4073447638424</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -48858,7 +48913,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>-34.824686211516685,173.4070085225611</t>
+          <t>-34.82468621151668,173.4070085225611</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -49944,7 +49999,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>-34.82540124677088,173.40704445054595</t>
+          <t>-34.82540124677089,173.40704445054595</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -53481,6 +53536,73 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-34.822111100240065,173.4083036767481</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-34.8227139971677,173.40783712285776</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-34.823342614441344,173.4075178509682</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-34.82400946557029,173.40730458394518</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-34.82469292330923,173.40709796260845</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-34.825402057017676,173.40696669085781</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-34.826130395953996,173.40696468588865</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-34.82682734389008,173.4071438900591</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-34.82744796785812,173.40746595390434</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-34.82793594082147,173.40799065553566</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>-34.828232933776384,173.40876029560062</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M481"/>
+  <dimension ref="A1:M483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19661,6 +19661,86 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="n">
+        <v>354.9271428571428</v>
+      </c>
+      <c r="H482" t="n">
+        <v>353.9271428571428</v>
+      </c>
+      <c r="I482" t="n">
+        <v>366.5611111111111</v>
+      </c>
+      <c r="J482" t="n">
+        <v>375.3094736842105</v>
+      </c>
+      <c r="K482" t="n">
+        <v>400.0080952380952</v>
+      </c>
+      <c r="L482" t="n">
+        <v>413.2105882352942</v>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>369.2333333333333</v>
+      </c>
+      <c r="C483" t="n">
+        <v>380.9709090909091</v>
+      </c>
+      <c r="D483" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="E483" t="n">
+        <v>397.4</v>
+      </c>
+      <c r="F483" t="n">
+        <v>398.2342857142857</v>
+      </c>
+      <c r="G483" t="n">
+        <v>390.8642857142857</v>
+      </c>
+      <c r="H483" t="n">
+        <v>381.9542857142857</v>
+      </c>
+      <c r="I483" t="n">
+        <v>394.8966666666667</v>
+      </c>
+      <c r="J483" t="n">
+        <v>401.1705263157895</v>
+      </c>
+      <c r="K483" t="n">
+        <v>405.7728571428572</v>
+      </c>
+      <c r="L483" t="n">
+        <v>404.5988235294118</v>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19672,7 +19752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B556"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25240,6 +25320,36 @@
       </c>
       <c r="B556" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -25413,28 +25523,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09783909818398184</v>
+        <v>0.09449656961788697</v>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003161165161044144</v>
+        <v>0.002964267368629869</v>
       </c>
       <c r="M2" t="n">
-        <v>10.16213462486889</v>
+        <v>10.15408755916489</v>
       </c>
       <c r="N2" t="n">
-        <v>173.1661380261159</v>
+        <v>172.81247939372</v>
       </c>
       <c r="O2" t="n">
-        <v>13.1592605425273</v>
+        <v>13.14581604137682</v>
       </c>
       <c r="P2" t="n">
-        <v>373.2032059158917</v>
+        <v>373.2356076833489</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25491,28 +25601,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1379677178193157</v>
+        <v>0.1374974022022971</v>
       </c>
       <c r="J3" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007674242623731065</v>
+        <v>0.007666771600133737</v>
       </c>
       <c r="M3" t="n">
-        <v>9.458478149670709</v>
+        <v>9.434826951652436</v>
       </c>
       <c r="N3" t="n">
-        <v>141.4505763749041</v>
+        <v>141.0565246011942</v>
       </c>
       <c r="O3" t="n">
-        <v>11.89329964202131</v>
+        <v>11.87672196362255</v>
       </c>
       <c r="P3" t="n">
-        <v>378.2800497698197</v>
+        <v>378.2846082132912</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25569,28 +25679,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1460011125264205</v>
+        <v>0.1478370106048244</v>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009368629223640568</v>
+        <v>0.009655913057713406</v>
       </c>
       <c r="M4" t="n">
-        <v>8.814466512569465</v>
+        <v>8.798115320322575</v>
       </c>
       <c r="N4" t="n">
-        <v>130.0853220880841</v>
+        <v>129.7597361073476</v>
       </c>
       <c r="O4" t="n">
-        <v>11.40549525834297</v>
+        <v>11.39121310955719</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1062536965344</v>
+        <v>385.0885039578035</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25647,28 +25757,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1932048080473818</v>
+        <v>0.1952884556505794</v>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01820375980452826</v>
+        <v>0.01869056622788157</v>
       </c>
       <c r="M5" t="n">
-        <v>8.585722499347353</v>
+        <v>8.57116149148381</v>
       </c>
       <c r="N5" t="n">
-        <v>117.005825496158</v>
+        <v>116.7278515466342</v>
       </c>
       <c r="O5" t="n">
-        <v>10.81692310669527</v>
+        <v>10.80406643568218</v>
       </c>
       <c r="P5" t="n">
-        <v>388.3994886899602</v>
+        <v>388.3795411372055</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25725,28 +25835,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3185749835776147</v>
+        <v>0.3190743502383207</v>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05152587372116957</v>
+        <v>0.05195896104096032</v>
       </c>
       <c r="M6" t="n">
-        <v>8.05204235142811</v>
+        <v>8.03282079952251</v>
       </c>
       <c r="N6" t="n">
-        <v>107.0716704671844</v>
+        <v>106.7840032904252</v>
       </c>
       <c r="O6" t="n">
-        <v>10.34754417565754</v>
+        <v>10.33363456342565</v>
       </c>
       <c r="P6" t="n">
-        <v>389.0160382544971</v>
+        <v>389.0111985645357</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25803,28 +25913,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2518122599527241</v>
+        <v>0.230095321035394</v>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03216482502661255</v>
+        <v>0.02630570306153712</v>
       </c>
       <c r="M7" t="n">
-        <v>8.558301798161612</v>
+        <v>8.630236558337952</v>
       </c>
       <c r="N7" t="n">
-        <v>110.2165702856016</v>
+        <v>113.8408105994403</v>
       </c>
       <c r="O7" t="n">
-        <v>10.49840798814761</v>
+        <v>10.66962092107495</v>
       </c>
       <c r="P7" t="n">
-        <v>388.1611345086859</v>
+        <v>388.3713680192496</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25881,28 +25991,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.308701836080471</v>
+        <v>0.2849979198866138</v>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04542683298284123</v>
+        <v>0.03814197647880235</v>
       </c>
       <c r="M8" t="n">
-        <v>8.707844603164421</v>
+        <v>8.783134522068606</v>
       </c>
       <c r="N8" t="n">
-        <v>115.7237337967649</v>
+        <v>119.0583472393263</v>
       </c>
       <c r="O8" t="n">
-        <v>10.75749663243103</v>
+        <v>10.91138612822983</v>
       </c>
       <c r="P8" t="n">
-        <v>383.3345400947545</v>
+        <v>383.5631382795984</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25959,28 +26069,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4146246487167779</v>
+        <v>0.3992247936771767</v>
       </c>
       <c r="J9" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0704809920661873</v>
+        <v>0.0653404646278648</v>
       </c>
       <c r="M9" t="n">
-        <v>9.389348487269276</v>
+        <v>9.407957347833255</v>
       </c>
       <c r="N9" t="n">
-        <v>130.0536221583577</v>
+        <v>131.6031806472147</v>
       </c>
       <c r="O9" t="n">
-        <v>11.40410549575712</v>
+        <v>11.47184294903023</v>
       </c>
       <c r="P9" t="n">
-        <v>385.0800132474022</v>
+        <v>385.2268731582479</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26037,28 +26147,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3117257971057023</v>
+        <v>0.2990013892544338</v>
       </c>
       <c r="J10" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K10" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0415859180219772</v>
+        <v>0.03832021744632375</v>
       </c>
       <c r="M10" t="n">
-        <v>8.715117357195528</v>
+        <v>8.735235616817704</v>
       </c>
       <c r="N10" t="n">
-        <v>126.3899127233037</v>
+        <v>127.4059582942949</v>
       </c>
       <c r="O10" t="n">
-        <v>11.24232683759477</v>
+        <v>11.28742478576468</v>
       </c>
       <c r="P10" t="n">
-        <v>392.6948285783014</v>
+        <v>392.8180532023989</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26115,28 +26225,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3273951082082229</v>
+        <v>0.3267828220245055</v>
       </c>
       <c r="J11" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K11" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05640064872340533</v>
+        <v>0.05678403505082374</v>
       </c>
       <c r="M11" t="n">
-        <v>8.173287169839623</v>
+        <v>8.144670749998458</v>
       </c>
       <c r="N11" t="n">
-        <v>105.1680606213236</v>
+        <v>104.6519356690838</v>
       </c>
       <c r="O11" t="n">
-        <v>10.25514800582242</v>
+        <v>10.22995286739307</v>
       </c>
       <c r="P11" t="n">
-        <v>395.021204155892</v>
+        <v>395.0269829385114</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26193,28 +26303,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3200614162908154</v>
+        <v>0.31999880468459</v>
       </c>
       <c r="J12" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K12" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04802363958694222</v>
+        <v>0.04849473302574925</v>
       </c>
       <c r="M12" t="n">
-        <v>8.640952764468576</v>
+        <v>8.617442596548154</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1945921638098</v>
+        <v>118.6492231826061</v>
       </c>
       <c r="O12" t="n">
-        <v>10.91762758862061</v>
+        <v>10.8926224199045</v>
       </c>
       <c r="P12" t="n">
-        <v>400.6730228950266</v>
+        <v>400.673638281668</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26252,7 +26362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M481"/>
+  <dimension ref="A1:M483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53603,6 +53713,120 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-34.825405195969914,173.4066653993833</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-34.82614773164099,173.4066985339447</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-34.82686738148235,173.40692878051945</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-34.827519835983246,173.40730642448958</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-34.8279111242651,173.4080190536504</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-34.828199443348474,173.40878837862596</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-34.822048818605005,173.40821189245847</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-34.822667633391866,173.4077516077228</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-34.82332809704989,173.40747342563915</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-34.82400661995865,173.4072889959976</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-34.824697837154204,173.40716344412</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-34.82540110190434,173.40705835294077</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-34.826127830547534,173.40700407138286</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-34.82681112270023,173.40723104083054</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-34.827408028896194,173.40755460817496</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-34.827873315388615,173.40806231910688</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-34.82826331773897,173.40873481744282</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M483"/>
+  <dimension ref="A1:M486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19741,6 +19741,141 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>375.8788888888889</v>
+      </c>
+      <c r="C484" t="n">
+        <v>377.5918181818182</v>
+      </c>
+      <c r="D484" t="n">
+        <v>392.9866666666667</v>
+      </c>
+      <c r="E484" t="n">
+        <v>386.6633333333334</v>
+      </c>
+      <c r="F484" t="n">
+        <v>391.5614285714286</v>
+      </c>
+      <c r="G484" t="n">
+        <v>391.1514285714285</v>
+      </c>
+      <c r="H484" t="n">
+        <v>390.4514285714286</v>
+      </c>
+      <c r="I484" t="n">
+        <v>387.8544444444445</v>
+      </c>
+      <c r="J484" t="n">
+        <v>398.3726315789473</v>
+      </c>
+      <c r="K484" t="n">
+        <v>396.4609523809524</v>
+      </c>
+      <c r="L484" t="n">
+        <v>403.1823529411765</v>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>368.2333333333333</v>
+      </c>
+      <c r="C485" t="n">
+        <v>369.21</v>
+      </c>
+      <c r="D485" t="n">
+        <v>375.19</v>
+      </c>
+      <c r="E485" t="n">
+        <v>388.73</v>
+      </c>
+      <c r="F485" t="n">
+        <v>396.8942857142857</v>
+      </c>
+      <c r="G485" t="n">
+        <v>382.4342857142857</v>
+      </c>
+      <c r="H485" t="n">
+        <v>381.3742857142857</v>
+      </c>
+      <c r="I485" t="n">
+        <v>378.5366666666667</v>
+      </c>
+      <c r="J485" t="n">
+        <v>392.0736842105263</v>
+      </c>
+      <c r="K485" t="n">
+        <v>387.2328571428571</v>
+      </c>
+      <c r="L485" t="n">
+        <v>395.6923529411765</v>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>363.5333333333333</v>
+      </c>
+      <c r="C486" t="n">
+        <v>378.3990909090909</v>
+      </c>
+      <c r="D486" t="n">
+        <v>387.72</v>
+      </c>
+      <c r="E486" t="n">
+        <v>391.8</v>
+      </c>
+      <c r="F486" t="n">
+        <v>385.7385714285714</v>
+      </c>
+      <c r="G486" t="n">
+        <v>381.6885714285714</v>
+      </c>
+      <c r="H486" t="n">
+        <v>378.9685714285715</v>
+      </c>
+      <c r="I486" t="n">
+        <v>380.2366666666667</v>
+      </c>
+      <c r="J486" t="n">
+        <v>388.8247368421053</v>
+      </c>
+      <c r="K486" t="n">
+        <v>393.0057142857143</v>
+      </c>
+      <c r="L486" t="n">
+        <v>397.6817647058824</v>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19752,7 +19887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25350,6 +25485,36 @@
       </c>
       <c r="B559" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -25523,28 +25688,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09449656961788697</v>
+        <v>0.08468908910985766</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002964267368629869</v>
+        <v>0.00241505133559361</v>
       </c>
       <c r="M2" t="n">
-        <v>10.15408755916489</v>
+        <v>10.1304249667076</v>
       </c>
       <c r="N2" t="n">
-        <v>172.81247939372</v>
+        <v>171.9620677849203</v>
       </c>
       <c r="O2" t="n">
-        <v>13.14581604137682</v>
+        <v>13.11343081672071</v>
       </c>
       <c r="P2" t="n">
-        <v>373.2356076833489</v>
+        <v>373.3310585076287</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25601,28 +25766,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1374974022022971</v>
+        <v>0.1268743385658517</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K3" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007666771600133737</v>
+        <v>0.006624747964493971</v>
       </c>
       <c r="M3" t="n">
-        <v>9.434826951652436</v>
+        <v>9.419564609435399</v>
       </c>
       <c r="N3" t="n">
-        <v>141.0565246011942</v>
+        <v>140.399157256876</v>
       </c>
       <c r="O3" t="n">
-        <v>11.87672196362255</v>
+        <v>11.84901503319478</v>
       </c>
       <c r="P3" t="n">
-        <v>378.2846082132912</v>
+        <v>378.3878850860763</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25679,28 +25844,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1478370106048244</v>
+        <v>0.1422427743455618</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009655913057713406</v>
+        <v>0.009058805024836136</v>
       </c>
       <c r="M4" t="n">
-        <v>8.798115320322575</v>
+        <v>8.783053888811176</v>
       </c>
       <c r="N4" t="n">
-        <v>129.7597361073476</v>
+        <v>129.2569263801938</v>
       </c>
       <c r="O4" t="n">
-        <v>11.39121310955719</v>
+        <v>11.36912161867371</v>
       </c>
       <c r="P4" t="n">
-        <v>385.0885039578035</v>
+        <v>385.1428271905996</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25757,28 +25922,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1952884556505794</v>
+        <v>0.1885691257388499</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01869056622788157</v>
+        <v>0.01771762442340508</v>
       </c>
       <c r="M5" t="n">
-        <v>8.57116149148381</v>
+        <v>8.542274530796549</v>
       </c>
       <c r="N5" t="n">
-        <v>116.7278515466342</v>
+        <v>115.963231497572</v>
       </c>
       <c r="O5" t="n">
-        <v>10.80406643568218</v>
+        <v>10.76862254411269</v>
       </c>
       <c r="P5" t="n">
-        <v>388.3795411372055</v>
+        <v>388.4440160954027</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25835,28 +26000,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3190743502383207</v>
+        <v>0.3100854503783737</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K6" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05195896104096032</v>
+        <v>0.04981720243835142</v>
       </c>
       <c r="M6" t="n">
-        <v>8.03282079952251</v>
+        <v>8.014755176305673</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7840032904252</v>
+        <v>106.3640736714747</v>
       </c>
       <c r="O6" t="n">
-        <v>10.33363456342565</v>
+        <v>10.3132959654746</v>
       </c>
       <c r="P6" t="n">
-        <v>389.0111985645357</v>
+        <v>389.0985973310782</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25913,28 +26078,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.230095321035394</v>
+        <v>0.2164735016939954</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K7" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02630570306153712</v>
+        <v>0.02356135875531673</v>
       </c>
       <c r="M7" t="n">
-        <v>8.630236558337952</v>
+        <v>8.636186081719213</v>
       </c>
       <c r="N7" t="n">
-        <v>113.8408105994403</v>
+        <v>113.7477322775473</v>
       </c>
       <c r="O7" t="n">
-        <v>10.66962092107495</v>
+        <v>10.66525819085255</v>
       </c>
       <c r="P7" t="n">
-        <v>388.3713680192496</v>
+        <v>388.5038490056936</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25991,28 +26156,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2849979198866138</v>
+        <v>0.2739771953149448</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K8" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03814197647880235</v>
+        <v>0.03573972816583648</v>
       </c>
       <c r="M8" t="n">
-        <v>8.783134522068606</v>
+        <v>8.769148195408805</v>
       </c>
       <c r="N8" t="n">
-        <v>119.0583472393263</v>
+        <v>118.7246522502496</v>
       </c>
       <c r="O8" t="n">
-        <v>10.91138612822983</v>
+        <v>10.89608426225906</v>
       </c>
       <c r="P8" t="n">
-        <v>383.5631382795984</v>
+        <v>383.6699303244038</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26069,28 +26234,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3992247936771767</v>
+        <v>0.379082007305292</v>
       </c>
       <c r="J9" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K9" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0653404646278648</v>
+        <v>0.05961289826078975</v>
       </c>
       <c r="M9" t="n">
-        <v>9.407957347833255</v>
+        <v>9.422996170911681</v>
       </c>
       <c r="N9" t="n">
-        <v>131.6031806472147</v>
+        <v>132.070155615404</v>
       </c>
       <c r="O9" t="n">
-        <v>11.47184294903023</v>
+        <v>11.49217801878321</v>
       </c>
       <c r="P9" t="n">
-        <v>385.2268731582479</v>
+        <v>385.4197762799951</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26147,28 +26312,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2990013892544338</v>
+        <v>0.2877676978672686</v>
       </c>
       <c r="J10" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K10" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03832021744632375</v>
+        <v>0.03602809186943934</v>
       </c>
       <c r="M10" t="n">
-        <v>8.735235616817704</v>
+        <v>8.723062251221466</v>
       </c>
       <c r="N10" t="n">
-        <v>127.4059582942949</v>
+        <v>126.9651272528219</v>
       </c>
       <c r="O10" t="n">
-        <v>11.28742478576468</v>
+        <v>11.2678803353968</v>
       </c>
       <c r="P10" t="n">
-        <v>392.8180532023989</v>
+        <v>392.9273393985627</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26225,28 +26390,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3267828220245055</v>
+        <v>0.3100085297572881</v>
       </c>
       <c r="J11" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K11" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05678403505082374</v>
+        <v>0.0517004679626305</v>
       </c>
       <c r="M11" t="n">
-        <v>8.144670749998458</v>
+        <v>8.160557995179044</v>
       </c>
       <c r="N11" t="n">
-        <v>104.6519356690838</v>
+        <v>104.922420160072</v>
       </c>
       <c r="O11" t="n">
-        <v>10.22995286739307</v>
+        <v>10.24316455789284</v>
       </c>
       <c r="P11" t="n">
-        <v>395.0269829385114</v>
+        <v>395.186314901659</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26303,28 +26468,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.31999880468459</v>
+        <v>0.3047542168038755</v>
       </c>
       <c r="J12" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K12" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04849473302574925</v>
+        <v>0.04458496868789397</v>
       </c>
       <c r="M12" t="n">
-        <v>8.617442596548154</v>
+        <v>8.619379816048635</v>
       </c>
       <c r="N12" t="n">
-        <v>118.6492231826061</v>
+        <v>118.5808981353805</v>
       </c>
       <c r="O12" t="n">
-        <v>10.8926224199045</v>
+        <v>10.88948566900111</v>
       </c>
       <c r="P12" t="n">
-        <v>400.673638281668</v>
+        <v>400.818437837968</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26362,7 +26527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M483"/>
+  <dimension ref="A1:M486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53827,6 +53992,207 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-34.8220868955284,173.40826800629634</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-34.822650893779496,173.40772073258773</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-34.82333004599127,173.40747938967937</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-34.823985693606936,173.40717436411379</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-34.824692383939905,173.4070907750446</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-34.82540106918707,173.40706149269508</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-34.82612179687231,173.40709670281578</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-34.826825104738646,173.40715592025742</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-34.827420125275,173.40752775733498</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-34.82793438861571,173.40799243175854</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-34.8282738238523,173.40872600764467</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-34.82204308892021,173.4082034486485</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-34.82260937121989,173.4076441470227</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-34.82327092428048,173.4072984692875</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-34.823989721661945,173.40719642923446</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-34.82469674207849,173.4071488511857</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-34.82540206238878,173.40696617537574</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-34.826128242393,173.40699774852393</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-34.826843604726626,173.4070565259094</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-34.827447358033986,173.40746730755953</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-34.827994912128645,173.40792317331244</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-34.82832937796997,173.40867942323902</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-34.822016159393634,173.4081637627573</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-34.82265489291279,173.40772810872863</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-34.823312549802445,173.40742584887366</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-34.82399570526529,173.40722920661923</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-34.82468762532991,173.4070273626882</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-34.82540214734948,173.40695802138666</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-34.82612995063524,173.40697152267492</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-34.826840229466555,173.40707466010696</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-34.82746140446458,173.4074361280265</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-34.82795705019263,173.40796649961266</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-34.828314622295444,173.40869179648473</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M486"/>
+  <dimension ref="A1:M489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19876,6 +19876,123 @@
         </is>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>386.1319047619048</v>
+      </c>
+      <c r="L487" t="n">
+        <v>395.1211764705882</v>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>360.7988888888889</v>
+      </c>
+      <c r="C488" t="n">
+        <v>374.2581818181818</v>
+      </c>
+      <c r="D488" t="n">
+        <v>385.6366666666667</v>
+      </c>
+      <c r="E488" t="n">
+        <v>384.9533333333333</v>
+      </c>
+      <c r="F488" t="n">
+        <v>391.9742857142857</v>
+      </c>
+      <c r="G488" t="n">
+        <v>387.3542857142857</v>
+      </c>
+      <c r="H488" t="n">
+        <v>383.5842857142857</v>
+      </c>
+      <c r="I488" t="n">
+        <v>382.3544444444445</v>
+      </c>
+      <c r="J488" t="n">
+        <v>391.3789473684211</v>
+      </c>
+      <c r="K488" t="n">
+        <v>393.2495238095238</v>
+      </c>
+      <c r="L488" t="n">
+        <v>396.3541176470589</v>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>357.1622222222222</v>
+      </c>
+      <c r="C489" t="n">
+        <v>371.610909090909</v>
+      </c>
+      <c r="D489" t="n">
+        <v>385.3266666666667</v>
+      </c>
+      <c r="E489" t="n">
+        <v>388.9233333333333</v>
+      </c>
+      <c r="F489" t="n">
+        <v>390.23</v>
+      </c>
+      <c r="G489" t="n">
+        <v>392.08</v>
+      </c>
+      <c r="H489" t="n">
+        <v>384.52</v>
+      </c>
+      <c r="I489" t="n">
+        <v>385.2211111111111</v>
+      </c>
+      <c r="J489" t="n">
+        <v>391.4173684210527</v>
+      </c>
+      <c r="K489" t="n">
+        <v>398.7766666666667</v>
+      </c>
+      <c r="L489" t="n">
+        <v>399.6941176470588</v>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19887,7 +20004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25515,6 +25632,56 @@
       </c>
       <c r="B562" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -25688,28 +25855,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08468908910985766</v>
+        <v>0.06817638121009739</v>
       </c>
       <c r="J2" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00241505133559361</v>
+        <v>0.001570467155146416</v>
       </c>
       <c r="M2" t="n">
-        <v>10.1304249667076</v>
+        <v>10.1718212880004</v>
       </c>
       <c r="N2" t="n">
-        <v>171.9620677849203</v>
+        <v>172.499132920745</v>
       </c>
       <c r="O2" t="n">
-        <v>13.11343081672071</v>
+        <v>13.13389252737912</v>
       </c>
       <c r="P2" t="n">
-        <v>373.3310585076287</v>
+        <v>373.4921134117237</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25766,28 +25933,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1268743385658517</v>
+        <v>0.1178408223499212</v>
       </c>
       <c r="J3" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K3" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006624747964493971</v>
+        <v>0.005767840645791833</v>
       </c>
       <c r="M3" t="n">
-        <v>9.419564609435399</v>
+        <v>9.420921673577052</v>
       </c>
       <c r="N3" t="n">
-        <v>140.399157256876</v>
+        <v>140.0496405469117</v>
       </c>
       <c r="O3" t="n">
-        <v>11.84901503319478</v>
+        <v>11.83425707625585</v>
       </c>
       <c r="P3" t="n">
-        <v>378.3878850860763</v>
+        <v>378.4759839501588</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25844,28 +26011,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1422427743455618</v>
+        <v>0.138831343160178</v>
       </c>
       <c r="J4" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K4" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009058805024836136</v>
+        <v>0.008725560796741805</v>
       </c>
       <c r="M4" t="n">
-        <v>8.783053888811176</v>
+        <v>8.756425011066243</v>
       </c>
       <c r="N4" t="n">
-        <v>129.2569263801938</v>
+        <v>128.6133113827002</v>
       </c>
       <c r="O4" t="n">
-        <v>11.36912161867371</v>
+        <v>11.34078089827593</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1428271905996</v>
+        <v>385.1760133194717</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25922,28 +26089,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1885691257388499</v>
+        <v>0.1820843177546644</v>
       </c>
       <c r="J5" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K5" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01771762442340508</v>
+        <v>0.01669017602513745</v>
       </c>
       <c r="M5" t="n">
-        <v>8.542274530796549</v>
+        <v>8.535424845098031</v>
       </c>
       <c r="N5" t="n">
-        <v>115.963231497572</v>
+        <v>115.5753261749043</v>
       </c>
       <c r="O5" t="n">
-        <v>10.76862254411269</v>
+        <v>10.75059654972245</v>
       </c>
       <c r="P5" t="n">
-        <v>388.4440160954027</v>
+        <v>388.5064679939333</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26000,28 +26167,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3100854503783737</v>
+        <v>0.3039886592039468</v>
       </c>
       <c r="J6" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K6" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04981720243835142</v>
+        <v>0.04839520679931864</v>
       </c>
       <c r="M6" t="n">
-        <v>8.014755176305673</v>
+        <v>8.003352361041181</v>
       </c>
       <c r="N6" t="n">
-        <v>106.3640736714747</v>
+        <v>105.9930900105178</v>
       </c>
       <c r="O6" t="n">
-        <v>10.3132959654746</v>
+        <v>10.29529455676319</v>
       </c>
       <c r="P6" t="n">
-        <v>389.0985973310782</v>
+        <v>389.1580486731269</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26078,28 +26245,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2164735016939954</v>
+        <v>0.2121853431844303</v>
       </c>
       <c r="J7" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K7" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02356135875531673</v>
+        <v>0.02286924096236576</v>
       </c>
       <c r="M7" t="n">
-        <v>8.636186081719213</v>
+        <v>8.614081622374368</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7477322775473</v>
+        <v>113.2796697695232</v>
       </c>
       <c r="O7" t="n">
-        <v>10.66525819085255</v>
+        <v>10.64329224298211</v>
       </c>
       <c r="P7" t="n">
-        <v>388.5038490056936</v>
+        <v>388.5456503926633</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26156,28 +26323,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2739771953149448</v>
+        <v>0.2673256590310519</v>
       </c>
       <c r="J8" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K8" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03573972816583648</v>
+        <v>0.0343765410953869</v>
       </c>
       <c r="M8" t="n">
-        <v>8.769148195408805</v>
+        <v>8.7568653915804</v>
       </c>
       <c r="N8" t="n">
-        <v>118.7246522502496</v>
+        <v>118.3327312889172</v>
       </c>
       <c r="O8" t="n">
-        <v>10.89608426225906</v>
+        <v>10.87808490906912</v>
       </c>
       <c r="P8" t="n">
-        <v>383.6699303244038</v>
+        <v>383.734529423346</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26234,28 +26401,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.379082007305292</v>
+        <v>0.3676763782676283</v>
       </c>
       <c r="J9" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K9" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05961289826078975</v>
+        <v>0.05659858203780765</v>
       </c>
       <c r="M9" t="n">
-        <v>9.422996170911681</v>
+        <v>9.424708180035031</v>
       </c>
       <c r="N9" t="n">
-        <v>132.070155615404</v>
+        <v>132.0705148614784</v>
       </c>
       <c r="O9" t="n">
-        <v>11.49217801878321</v>
+        <v>11.49219364879823</v>
       </c>
       <c r="P9" t="n">
-        <v>385.4197762799951</v>
+        <v>385.5292957506679</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26312,28 +26479,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2877676978672686</v>
+        <v>0.2788566072487114</v>
       </c>
       <c r="J10" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K10" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03602809186943934</v>
+        <v>0.03416244230249021</v>
       </c>
       <c r="M10" t="n">
-        <v>8.723062251221466</v>
+        <v>8.722712108459161</v>
       </c>
       <c r="N10" t="n">
-        <v>126.9651272528219</v>
+        <v>126.7239477147371</v>
       </c>
       <c r="O10" t="n">
-        <v>11.2678803353968</v>
+        <v>11.25717316712935</v>
       </c>
       <c r="P10" t="n">
-        <v>392.9273393985627</v>
+        <v>393.0142341653551</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26390,28 +26557,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3100085297572881</v>
+        <v>0.2946503111417955</v>
       </c>
       <c r="J11" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K11" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0517004679626305</v>
+        <v>0.04721928414992782</v>
       </c>
       <c r="M11" t="n">
-        <v>8.160557995179044</v>
+        <v>8.169249257086562</v>
       </c>
       <c r="N11" t="n">
-        <v>104.922420160072</v>
+        <v>105.1605461014474</v>
       </c>
       <c r="O11" t="n">
-        <v>10.24316455789284</v>
+        <v>10.25478162134364</v>
       </c>
       <c r="P11" t="n">
-        <v>395.186314901659</v>
+        <v>395.3325568800881</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26468,28 +26635,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3047542168038755</v>
+        <v>0.287509114333544</v>
       </c>
       <c r="J12" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K12" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04458496868789397</v>
+        <v>0.04015892031594792</v>
       </c>
       <c r="M12" t="n">
-        <v>8.619379816048635</v>
+        <v>8.632531594198992</v>
       </c>
       <c r="N12" t="n">
-        <v>118.5808981353805</v>
+        <v>118.7293368478677</v>
       </c>
       <c r="O12" t="n">
-        <v>10.88948566900111</v>
+        <v>10.89629922716276</v>
       </c>
       <c r="P12" t="n">
-        <v>400.818437837968</v>
+        <v>400.9826536694229</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26527,7 +26694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M486"/>
+  <dimension ref="A1:M489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54193,6 +54360,171 @@
         </is>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-34.82800213284753,173.4079149104682</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>-34.828333614445185,173.40867587077767</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-34.822000491878114,173.40814067364903</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-34.82263437933568,173.40769027278822</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-34.823305628835115,173.40740466976365</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-34.8239823607132,173.40715610700747</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-34.824692721337655,173.40709527116138</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-34.82540150182983,173.40701997295852</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-34.82612667311798,173.40702184079638</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-34.82683602472703,173.40709725081112</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-34.82745036164528,173.40746064030245</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>-34.82795545113998,173.40796832944483</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>-34.82832446959227,173.4086835391181</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-34.82197965490315,173.40810996636822</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-34.82262126505137,173.40766608437684</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-34.823304598994866,173.4074015183124</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-34.8239900984798,173.407198493391</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-34.824691295860276,173.4070762754571</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-34.825400963384396,173.40707164612945</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-34.8261260086853,173.40703204146732</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-34.82683033310023,173.40712783003966</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-34.82745019553648,173.40746100902197</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-34.82791920073382,173.40800981157767</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-34.828299696462544,173.40870431240972</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M489"/>
+  <dimension ref="A1:M491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19993,6 +19993,96 @@
         </is>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>382.6877777777778</v>
+      </c>
+      <c r="C490" t="n">
+        <v>386.4236363636364</v>
+      </c>
+      <c r="D490" t="n">
+        <v>392.2833333333333</v>
+      </c>
+      <c r="E490" t="n">
+        <v>394.3766666666667</v>
+      </c>
+      <c r="F490" t="n">
+        <v>396.7371428571428</v>
+      </c>
+      <c r="G490" t="n">
+        <v>381.9671428571429</v>
+      </c>
+      <c r="H490" t="n">
+        <v>380.9471428571428</v>
+      </c>
+      <c r="I490" t="n">
+        <v>379.0488888888889</v>
+      </c>
+      <c r="J490" t="n">
+        <v>392.2731578947368</v>
+      </c>
+      <c r="K490" t="n">
+        <v>394.6647619047619</v>
+      </c>
+      <c r="L490" t="n">
+        <v>403.6705882352941</v>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>369.5333333333333</v>
+      </c>
+      <c r="C491" t="n">
+        <v>367.9318181818182</v>
+      </c>
+      <c r="D491" t="n">
+        <v>379.66</v>
+      </c>
+      <c r="E491" t="n">
+        <v>382.33</v>
+      </c>
+      <c r="F491" t="n">
+        <v>389.6528571428572</v>
+      </c>
+      <c r="G491" t="n">
+        <v>378.1528571428572</v>
+      </c>
+      <c r="H491" t="n">
+        <v>379.3628571428572</v>
+      </c>
+      <c r="I491" t="n">
+        <v>381.8666666666667</v>
+      </c>
+      <c r="J491" t="n">
+        <v>384.8105263157895</v>
+      </c>
+      <c r="K491" t="n">
+        <v>388.0685714285714</v>
+      </c>
+      <c r="L491" t="n">
+        <v>390.4664705882353</v>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20004,7 +20094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25682,6 +25772,36 @@
       </c>
       <c r="B567" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -25855,28 +25975,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06817638121009739</v>
+        <v>0.06899953599062845</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001570467155146416</v>
+        <v>0.001624214914826339</v>
       </c>
       <c r="M2" t="n">
-        <v>10.1718212880004</v>
+        <v>10.15241803264053</v>
       </c>
       <c r="N2" t="n">
-        <v>172.499132920745</v>
+        <v>171.8190010190085</v>
       </c>
       <c r="O2" t="n">
-        <v>13.13389252737912</v>
+        <v>13.10797471080138</v>
       </c>
       <c r="P2" t="n">
-        <v>373.4921134117237</v>
+        <v>373.484064065883</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25933,28 +26053,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1178408223499212</v>
+        <v>0.1133361788866117</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005767840645791833</v>
+        <v>0.005376506932719738</v>
       </c>
       <c r="M3" t="n">
-        <v>9.420921673577052</v>
+        <v>9.422559627211784</v>
       </c>
       <c r="N3" t="n">
-        <v>140.0496405469117</v>
+        <v>139.8536502225219</v>
       </c>
       <c r="O3" t="n">
-        <v>11.83425707625585</v>
+        <v>11.82597354227219</v>
       </c>
       <c r="P3" t="n">
-        <v>378.4759839501588</v>
+        <v>378.520239711847</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26011,28 +26131,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.138831343160178</v>
+        <v>0.1359633671872633</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008725560796741805</v>
+        <v>0.008448507367813107</v>
       </c>
       <c r="M4" t="n">
-        <v>8.756425011066243</v>
+        <v>8.745600327201135</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6133113827002</v>
+        <v>128.1751133032777</v>
       </c>
       <c r="O4" t="n">
-        <v>11.34078089827593</v>
+        <v>11.32144484168331</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1760133194717</v>
+        <v>385.2041230768165</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26089,28 +26209,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1820843177546644</v>
+        <v>0.1771316552892599</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01669017602513745</v>
+        <v>0.01594137915084559</v>
       </c>
       <c r="M5" t="n">
-        <v>8.535424845098031</v>
+        <v>8.525953933752803</v>
       </c>
       <c r="N5" t="n">
-        <v>115.5753261749043</v>
+        <v>115.2761317462944</v>
       </c>
       <c r="O5" t="n">
-        <v>10.75059654972245</v>
+        <v>10.7366722845719</v>
       </c>
       <c r="P5" t="n">
-        <v>388.5064679939333</v>
+        <v>388.5545097818707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26167,28 +26287,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3039886592039468</v>
+        <v>0.3000703695295138</v>
       </c>
       <c r="J6" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04839520679931864</v>
+        <v>0.04765489014788205</v>
       </c>
       <c r="M6" t="n">
-        <v>8.003352361041181</v>
+        <v>7.980923803794948</v>
       </c>
       <c r="N6" t="n">
-        <v>105.9930900105178</v>
+        <v>105.5763738505485</v>
       </c>
       <c r="O6" t="n">
-        <v>10.29529455676319</v>
+        <v>10.27503644035137</v>
       </c>
       <c r="P6" t="n">
-        <v>389.1580486731269</v>
+        <v>389.1965149352444</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26245,28 +26365,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2121853431844303</v>
+        <v>0.1986185621575761</v>
       </c>
       <c r="J7" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02286924096236576</v>
+        <v>0.0201254603818033</v>
       </c>
       <c r="M7" t="n">
-        <v>8.614081622374368</v>
+        <v>8.64199140881807</v>
       </c>
       <c r="N7" t="n">
-        <v>113.2796697695232</v>
+        <v>113.7209392253017</v>
       </c>
       <c r="O7" t="n">
-        <v>10.64329224298211</v>
+        <v>10.6640020266925</v>
       </c>
       <c r="P7" t="n">
-        <v>388.5456503926633</v>
+        <v>388.6788202267481</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26323,28 +26443,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2673256590310519</v>
+        <v>0.256950490942449</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K8" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0343765410953869</v>
+        <v>0.03202699896331829</v>
       </c>
       <c r="M8" t="n">
-        <v>8.7568653915804</v>
+        <v>8.763970998156983</v>
       </c>
       <c r="N8" t="n">
-        <v>118.3327312889172</v>
+        <v>118.2919556082986</v>
       </c>
       <c r="O8" t="n">
-        <v>10.87808490906912</v>
+        <v>10.87621053530588</v>
       </c>
       <c r="P8" t="n">
-        <v>383.734529423346</v>
+        <v>383.8359585567894</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26401,28 +26521,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3676763782676283</v>
+        <v>0.3531766655209574</v>
       </c>
       <c r="J9" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K9" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05659858203780765</v>
+        <v>0.05259369060918473</v>
       </c>
       <c r="M9" t="n">
-        <v>9.424708180035031</v>
+        <v>9.442334282442779</v>
       </c>
       <c r="N9" t="n">
-        <v>132.0705148614784</v>
+        <v>132.49532619939</v>
       </c>
       <c r="O9" t="n">
-        <v>11.49219364879823</v>
+        <v>11.51066141450569</v>
       </c>
       <c r="P9" t="n">
-        <v>385.5292957506679</v>
+        <v>385.6694006621269</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26479,28 +26599,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2788566072487114</v>
+        <v>0.2672806869173247</v>
       </c>
       <c r="J10" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03416244230249021</v>
+        <v>0.03162537710090929</v>
       </c>
       <c r="M10" t="n">
-        <v>8.722712108459161</v>
+        <v>8.736358129966678</v>
       </c>
       <c r="N10" t="n">
-        <v>126.7239477147371</v>
+        <v>126.8440001599913</v>
       </c>
       <c r="O10" t="n">
-        <v>11.25717316712935</v>
+        <v>11.26250416914423</v>
       </c>
       <c r="P10" t="n">
-        <v>393.0142341653551</v>
+        <v>393.1278301848564</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26557,28 +26677,28 @@
         <v>0.1221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2946503111417955</v>
+        <v>0.2833436374144752</v>
       </c>
       <c r="J11" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K11" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04721928414992782</v>
+        <v>0.04397579641705551</v>
       </c>
       <c r="M11" t="n">
-        <v>8.169249257086562</v>
+        <v>8.17948500312114</v>
       </c>
       <c r="N11" t="n">
-        <v>105.1605461014474</v>
+        <v>105.3691288394321</v>
       </c>
       <c r="O11" t="n">
-        <v>10.25478162134364</v>
+        <v>10.26494660675018</v>
       </c>
       <c r="P11" t="n">
-        <v>395.3325568800881</v>
+        <v>395.4409949984002</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26635,28 +26755,28 @@
         <v>0.1019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.287509114333544</v>
+        <v>0.2763067015971046</v>
       </c>
       <c r="J12" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K12" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04015892031594792</v>
+        <v>0.03732410315702661</v>
       </c>
       <c r="M12" t="n">
-        <v>8.632531594198992</v>
+        <v>8.639573699887348</v>
       </c>
       <c r="N12" t="n">
-        <v>118.7293368478677</v>
+        <v>119.0134127704455</v>
       </c>
       <c r="O12" t="n">
-        <v>10.89629922716276</v>
+        <v>10.90932687063897</v>
       </c>
       <c r="P12" t="n">
-        <v>400.9826536694229</v>
+        <v>401.0900974968284</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26694,7 +26814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M489"/>
+  <dimension ref="A1:M491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54525,6 +54645,140 @@
         </is>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-34.822125908272476,173.40832549934402</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-34.82269464553407,173.40780142993358</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-34.82332770947628,173.40747223960844</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-34.82400072732727,173.40725671684913</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-34.82469661365798,173.4071471398608</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-34.82540211561135,173.40696106741703</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-34.8261285456977,173.4069930920342</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-34.82684258773679,173.40706198987365</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-34.8274464956334,173.40746922187037</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>-34.827946169138464,173.4079789510472</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>-34.82827020255917,173.40872904424478</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-34.822050537510336,173.4082144256017</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-34.82260303925044,173.40763246814606</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-34.82328577394341,173.40734391115242</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-34.82397724767206,173.40712809854503</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-34.8246908242029,173.40706999022828</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-34.8254025501729,173.40691936023106</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-34.82612967066243,173.4069758209733</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-34.826836993185246,173.40709204760088</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-34.82747875940683,173.4073976043931</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>-34.827989431003004,173.40792944549642</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>-34.828368138878346,173.40864692058213</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M491"/>
+  <dimension ref="A1:M493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20083,6 +20083,80 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:11:39+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>675.7144444444444</v>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="n">
+        <v>367.2633333333333</v>
+      </c>
+      <c r="E492" t="n">
+        <v>364.5566666666667</v>
+      </c>
+      <c r="F492" t="n">
+        <v>364.0257142857143</v>
+      </c>
+      <c r="G492" t="n">
+        <v>365.5257142857143</v>
+      </c>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>647.6944444444445</v>
+      </c>
+      <c r="C493" t="n">
+        <v>373.8590909090909</v>
+      </c>
+      <c r="D493" t="n">
+        <v>382.1833333333333</v>
+      </c>
+      <c r="E493" t="n">
+        <v>386.9766666666667</v>
+      </c>
+      <c r="F493" t="n">
+        <v>387.3457142857143</v>
+      </c>
+      <c r="G493" t="n">
+        <v>383.1157142857143</v>
+      </c>
+      <c r="H493" t="n">
+        <v>377.9457142857143</v>
+      </c>
+      <c r="I493" t="n">
+        <v>369.8422222222222</v>
+      </c>
+      <c r="J493" t="n">
+        <v>355.4889473684211</v>
+      </c>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20094,7 +20168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25802,6 +25876,26 @@
       </c>
       <c r="B570" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -26814,7 +26908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M491"/>
+  <dimension ref="A1:M493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54779,6 +54873,108 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:11:39+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-34.823804830516096,173.4107998157296</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-34.823244591279014,173.40721788710894</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-34.82394260616049,173.40693833863236</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-34.82466988065295,173.406790904358</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-34.825403988681245,173.40678128913441</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-34.82364428967025,173.41056321059014</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-34.82263240228558,173.4076866262518</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-34.82329415663149,173.40736956327868</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-34.8239863043123,173.40717770947066</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-34.824688938737594,173.40704486487127</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-34.82540198475182,173.40697362643473</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-34.82613067694081,173.40696037201667</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-34.826860867044026,173.40696378072514</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-34.8276055272552,173.40711621014893</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -26069,28 +26069,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06899953599062845</v>
+        <v>0.3493755761035076</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001624214914826339</v>
+        <v>0.01193189531833028</v>
       </c>
       <c r="M2" t="n">
-        <v>10.15241803264053</v>
+        <v>11.67154771804602</v>
       </c>
       <c r="N2" t="n">
-        <v>171.8190010190085</v>
+        <v>596.7856413055931</v>
       </c>
       <c r="O2" t="n">
-        <v>13.10797471080138</v>
+        <v>24.4291964932454</v>
       </c>
       <c r="P2" t="n">
-        <v>373.484064065883</v>
+        <v>370.7289764025269</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26147,28 +26147,28 @@
         <v>0.0611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1133361788866117</v>
+        <v>0.1094414298725282</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005376506932719738</v>
+        <v>0.005037716992900232</v>
       </c>
       <c r="M3" t="n">
-        <v>9.422559627211784</v>
+        <v>9.419709608161295</v>
       </c>
       <c r="N3" t="n">
-        <v>139.8536502225219</v>
+        <v>139.6286587098691</v>
       </c>
       <c r="O3" t="n">
-        <v>11.82597354227219</v>
+        <v>11.81645711327508</v>
       </c>
       <c r="P3" t="n">
-        <v>378.520239711847</v>
+        <v>378.558529999854</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26225,28 +26225,28 @@
         <v>0.0697</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1359633671872633</v>
+        <v>0.1220023666714471</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008448507367813107</v>
+        <v>0.006817359461058881</v>
       </c>
       <c r="M4" t="n">
-        <v>8.745600327201135</v>
+        <v>8.785115624026924</v>
       </c>
       <c r="N4" t="n">
-        <v>128.1751133032777</v>
+        <v>128.8295181767922</v>
       </c>
       <c r="O4" t="n">
-        <v>11.32144484168331</v>
+        <v>11.35030916657305</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2041230768165</v>
+        <v>385.340931404877</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26303,28 +26303,28 @@
         <v>0.0828</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1771316552892599</v>
+        <v>0.1598583414168616</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K5" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01594137915084559</v>
+        <v>0.01291300717300337</v>
       </c>
       <c r="M5" t="n">
-        <v>8.525953933752803</v>
+        <v>8.586878387684644</v>
       </c>
       <c r="N5" t="n">
-        <v>115.2761317462944</v>
+        <v>116.9332405726218</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7366722845719</v>
+        <v>10.81356743043765</v>
       </c>
       <c r="P5" t="n">
-        <v>388.5545097818707</v>
+        <v>388.722100577477</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26381,28 +26381,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3000703695295138</v>
+        <v>0.27901748361457</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K6" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04765489014788205</v>
+        <v>0.04075664349597474</v>
       </c>
       <c r="M6" t="n">
-        <v>7.980923803794948</v>
+        <v>8.047912968882519</v>
       </c>
       <c r="N6" t="n">
-        <v>105.5763738505485</v>
+        <v>108.1136172927599</v>
       </c>
       <c r="O6" t="n">
-        <v>10.27503644035137</v>
+        <v>10.39776982303224</v>
       </c>
       <c r="P6" t="n">
-        <v>389.1965149352444</v>
+        <v>389.4032796999484</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26459,28 +26459,28 @@
         <v>0.0751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1986185621575761</v>
+        <v>0.1799803516506035</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K7" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0201254603818033</v>
+        <v>0.01641995443065492</v>
       </c>
       <c r="M7" t="n">
-        <v>8.64199140881807</v>
+        <v>8.697635386961222</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7209392253017</v>
+        <v>115.4927145064346</v>
       </c>
       <c r="O7" t="n">
-        <v>10.6640020266925</v>
+        <v>10.7467536729207</v>
       </c>
       <c r="P7" t="n">
-        <v>388.6788202267481</v>
+        <v>388.8619270664478</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26537,28 +26537,28 @@
         <v>0.0771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.256950490942449</v>
+        <v>0.2507889146911036</v>
       </c>
       <c r="J8" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K8" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03202699896331829</v>
+        <v>0.0306112477392676</v>
       </c>
       <c r="M8" t="n">
-        <v>8.763970998156983</v>
+        <v>8.772943329563969</v>
       </c>
       <c r="N8" t="n">
-        <v>118.2919556082986</v>
+        <v>118.3967802473747</v>
       </c>
       <c r="O8" t="n">
-        <v>10.87621053530588</v>
+        <v>10.8810284554069</v>
       </c>
       <c r="P8" t="n">
-        <v>383.8359585567894</v>
+        <v>383.8962959459581</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26615,28 +26615,28 @@
         <v>0.1035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3531766655209574</v>
+        <v>0.3408621329319309</v>
       </c>
       <c r="J9" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05259369060918473</v>
+        <v>0.04886275320323574</v>
       </c>
       <c r="M9" t="n">
-        <v>9.442334282442779</v>
+        <v>9.476395694838725</v>
       </c>
       <c r="N9" t="n">
-        <v>132.49532619939</v>
+        <v>133.7617059095809</v>
       </c>
       <c r="O9" t="n">
-        <v>11.51066141450569</v>
+        <v>11.56553958575132</v>
       </c>
       <c r="P9" t="n">
-        <v>385.6694006621269</v>
+        <v>385.7885916131339</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26693,28 +26693,28 @@
         <v>0.1127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2672806869173247</v>
+        <v>0.2454391427680665</v>
       </c>
       <c r="J10" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K10" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03162537710090929</v>
+        <v>0.02593820307356964</v>
       </c>
       <c r="M10" t="n">
-        <v>8.736358129966678</v>
+        <v>8.824499174512901</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8440001599913</v>
+        <v>131.5633145970539</v>
       </c>
       <c r="O10" t="n">
-        <v>11.26250416914423</v>
+        <v>11.4701052565813</v>
       </c>
       <c r="P10" t="n">
-        <v>393.1278301848564</v>
+        <v>393.3424808027985</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26774,7 +26774,7 @@
         <v>0.2833436374144752</v>
       </c>
       <c r="J11" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K11" t="n">
         <v>382</v>
@@ -26852,7 +26852,7 @@
         <v>0.2763067015971046</v>
       </c>
       <c r="J12" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K12" t="n">
         <v>377</v>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -26060,13 +26060,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0436</v>
+        <v>0.0434</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0506</v>
+        <v>0.0741</v>
       </c>
       <c r="I2" t="n">
         <v>0.3493775131558586</v>
@@ -26138,13 +26138,13 @@
         <v>0.09981097426789633</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0496</v>
+        <v>0.0615</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0611</v>
+        <v>0.0825</v>
       </c>
       <c r="I3" t="n">
         <v>0.1094262444928668</v>
@@ -26216,13 +26216,13 @@
         <v>0.1994561973036555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0553</v>
+        <v>0.0529</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0697</v>
+        <v>0.0815</v>
       </c>
       <c r="I4" t="n">
         <v>0.1220162840599965</v>
@@ -26294,13 +26294,13 @@
         <v>0.2997244976909504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0655</v>
+        <v>0.0562</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0828</v>
+        <v>0.0905</v>
       </c>
       <c r="I5" t="n">
         <v>0.1598469726066991</v>
@@ -26375,10 +26375,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06</v>
+        <v>0.0575</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.0827</v>
       </c>
       <c r="I6" t="n">
         <v>0.2790184733185422</v>
@@ -26453,10 +26453,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0636</v>
+        <v>0.0587</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0751</v>
+        <v>0.0833</v>
       </c>
       <c r="I7" t="n">
         <v>0.1799868448808466</v>
@@ -26528,13 +26528,13 @@
         <v>0.6001491278212654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.145</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.1162</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0771</v>
+        <v>0.1957</v>
       </c>
       <c r="I8" t="n">
         <v>0.2507975424136185</v>
@@ -26606,13 +26606,13 @@
         <v>0.7002024950055977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.079</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1035</v>
+        <v>0.1302</v>
       </c>
       <c r="I9" t="n">
         <v>0.3408778874857309</v>
@@ -26684,13 +26684,13 @@
         <v>0.8004865315581825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.095</v>
+        <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.0834</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1127</v>
+        <v>0.1524</v>
       </c>
       <c r="I10" t="n">
         <v>0.2454633274506053</v>
@@ -26762,13 +26762,13 @@
         <v>0.9003650910982298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0927</v>
+        <v>0.0718</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1221</v>
+        <v>0.113</v>
       </c>
       <c r="I11" t="n">
         <v>0.2833294930059504</v>
@@ -26840,13 +26840,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G12" t="n">
         <v>0.0757</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1019</v>
+        <v>0.1091</v>
       </c>
       <c r="I12" t="n">
         <v>0.2762996939901948</v>

--- a/data/nzd0024/nzd0024.xlsx
+++ b/data/nzd0024/nzd0024.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M497"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22820,6 +22820,51 @@
       <c r="M497" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="C498" t="n">
+        <v>379.31</v>
+      </c>
+      <c r="D498" t="n">
+        <v>385.96</v>
+      </c>
+      <c r="E498" t="n">
+        <v>389.39</v>
+      </c>
+      <c r="F498" t="n">
+        <v>388.64</v>
+      </c>
+      <c r="G498" t="n">
+        <v>381.49</v>
+      </c>
+      <c r="H498" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="I498" t="n">
+        <v>382.72</v>
+      </c>
+      <c r="J498" t="n">
+        <v>389.12</v>
+      </c>
+      <c r="K498" t="n">
+        <v>394.34</v>
+      </c>
+      <c r="L498" t="n">
+        <v>399.82</v>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22834,7 +22879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28602,6 +28647,16 @@
       </c>
       <c r="B576" t="n">
         <v>-0.17</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -28772,31 +28827,31 @@
         <v>0.0433</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0738</v>
+        <v>0.0737</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07513207623584629</v>
+        <v>0.07418090323503242</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008270715270727869</v>
+        <v>0.008100388563007432</v>
       </c>
       <c r="M2" t="n">
-        <v>4.987016688346071</v>
+        <v>4.981532438417521</v>
       </c>
       <c r="N2" t="n">
-        <v>38.19399291242318</v>
+        <v>38.1278255860573</v>
       </c>
       <c r="O2" t="n">
-        <v>6.18012887506589</v>
+        <v>6.174773322645723</v>
       </c>
       <c r="P2" t="n">
-        <v>372.935562400124</v>
+        <v>372.9449263299858</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28850,31 +28905,31 @@
         <v>0.0615</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0823</v>
+        <v>0.0822</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1112175896283659</v>
+        <v>0.1105202617636995</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K3" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02540883618781353</v>
+        <v>0.02521115996391043</v>
       </c>
       <c r="M3" t="n">
-        <v>4.053137501090403</v>
+        <v>4.048921488379454</v>
       </c>
       <c r="N3" t="n">
-        <v>26.7718798806055</v>
+        <v>26.72375405170938</v>
       </c>
       <c r="O3" t="n">
-        <v>5.174154991938829</v>
+        <v>5.16950230212826</v>
       </c>
       <c r="P3" t="n">
-        <v>378.0774493219187</v>
+        <v>378.0843142447139</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28931,28 +28986,28 @@
         <v>0.0805</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1224001078250489</v>
+        <v>0.1213967446909017</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K4" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02470162328518444</v>
+        <v>0.02441326464394455</v>
       </c>
       <c r="M4" t="n">
-        <v>4.637727257776765</v>
+        <v>4.633571518060686</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37873106706372</v>
+        <v>33.32345675445973</v>
       </c>
       <c r="O4" t="n">
-        <v>5.777432913246481</v>
+        <v>5.772647291707655</v>
       </c>
       <c r="P4" t="n">
-        <v>385.174900337798</v>
+        <v>385.1847780593125</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29009,28 +29064,28 @@
         <v>0.0893</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1686970910267234</v>
+        <v>0.1671720906763091</v>
       </c>
       <c r="J5" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K5" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0413166584178013</v>
+        <v>0.04076102205024035</v>
       </c>
       <c r="M5" t="n">
-        <v>4.863861659623415</v>
+        <v>4.862552023438639</v>
       </c>
       <c r="N5" t="n">
-        <v>37.26141930130322</v>
+        <v>37.21390428064614</v>
       </c>
       <c r="O5" t="n">
-        <v>6.104213241794819</v>
+        <v>6.100320014609573</v>
       </c>
       <c r="P5" t="n">
-        <v>388.6584724755231</v>
+        <v>388.6734855134336</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29087,28 +29142,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2997853774039164</v>
+        <v>0.2963840969549736</v>
       </c>
       <c r="J6" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K6" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1214283169703868</v>
+        <v>0.1191256208829314</v>
       </c>
       <c r="M6" t="n">
-        <v>5.01220209967638</v>
+        <v>5.019337589444026</v>
       </c>
       <c r="N6" t="n">
-        <v>36.69207996919882</v>
+        <v>36.75483955093571</v>
       </c>
       <c r="O6" t="n">
-        <v>6.05739877911293</v>
+        <v>6.062576972784404</v>
       </c>
       <c r="P6" t="n">
-        <v>389.0171381237616</v>
+        <v>389.0506224126734</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29165,28 +29220,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>0.213487698870679</v>
+        <v>0.2084794437387463</v>
       </c>
       <c r="J7" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K7" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05462247676125664</v>
+        <v>0.05212985860388519</v>
       </c>
       <c r="M7" t="n">
-        <v>5.543864886706983</v>
+        <v>5.553417493055426</v>
       </c>
       <c r="N7" t="n">
-        <v>44.51166201140869</v>
+        <v>44.71824088576496</v>
       </c>
       <c r="O7" t="n">
-        <v>6.671706079512847</v>
+        <v>6.687169871161115</v>
       </c>
       <c r="P7" t="n">
-        <v>388.0428261422101</v>
+        <v>388.0921304745929</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29237,34 +29292,34 @@
         <v>0.145</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1165</v>
+        <v>0.1172</v>
       </c>
       <c r="H8" t="n">
-        <v>0.194</v>
+        <v>0.1961</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3253947740981703</v>
+        <v>0.3215394169393088</v>
       </c>
       <c r="J8" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K8" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1383639793082629</v>
+        <v>0.1355541972570738</v>
       </c>
       <c r="M8" t="n">
-        <v>4.872257730484916</v>
+        <v>4.877238791178129</v>
       </c>
       <c r="N8" t="n">
-        <v>37.20627268576009</v>
+        <v>37.30690113225846</v>
       </c>
       <c r="O8" t="n">
-        <v>6.099694474788069</v>
+        <v>6.107937551437347</v>
       </c>
       <c r="P8" t="n">
-        <v>381.5623888244139</v>
+        <v>381.6003433226987</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29315,34 +29370,34 @@
         <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.0857</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1294</v>
+        <v>0.1295</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3650923844487913</v>
+        <v>0.3601115486188394</v>
       </c>
       <c r="J9" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K9" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1299725351693796</v>
+        <v>0.1267831165773362</v>
       </c>
       <c r="M9" t="n">
-        <v>5.580470928496544</v>
+        <v>5.588868332840333</v>
       </c>
       <c r="N9" t="n">
-        <v>50.34787378963778</v>
+        <v>50.53947603715956</v>
       </c>
       <c r="O9" t="n">
-        <v>7.095623565948082</v>
+        <v>7.109112183469857</v>
       </c>
       <c r="P9" t="n">
-        <v>385.2226226751537</v>
+        <v>385.2716570751263</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29396,31 +29451,31 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1517</v>
+        <v>0.1507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2763420195175765</v>
+        <v>0.2718656057133235</v>
       </c>
       <c r="J10" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K10" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07948449112875156</v>
+        <v>0.07713023786521811</v>
       </c>
       <c r="M10" t="n">
-        <v>5.501883082330489</v>
+        <v>5.510231474586222</v>
       </c>
       <c r="N10" t="n">
-        <v>49.90416351349722</v>
+        <v>50.04033597182595</v>
       </c>
       <c r="O10" t="n">
-        <v>7.064287898542728</v>
+        <v>7.073919420789719</v>
       </c>
       <c r="P10" t="n">
-        <v>392.7317266281164</v>
+        <v>392.7757951885778</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29471,34 +29526,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0716</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1125</v>
+        <v>0.1119</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2797553253918829</v>
+        <v>0.276302009610081</v>
       </c>
       <c r="J11" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K11" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09313577346792534</v>
+        <v>0.09118339469716952</v>
       </c>
       <c r="M11" t="n">
-        <v>5.212584600443278</v>
+        <v>5.218430002961134</v>
       </c>
       <c r="N11" t="n">
-        <v>43.0008147312553</v>
+        <v>43.05509186120323</v>
       </c>
       <c r="O11" t="n">
-        <v>6.557500646683559</v>
+        <v>6.561637894703062</v>
       </c>
       <c r="P11" t="n">
-        <v>395.376851601998</v>
+        <v>395.4108481586118</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29549,34 +29604,34 @@
         <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0761</v>
+        <v>0.0764</v>
       </c>
       <c r="H12" t="n">
         <v>0.1089</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2673337815499807</v>
+        <v>0.2639845943786706</v>
       </c>
       <c r="J12" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K12" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07698847277759269</v>
+        <v>0.07535773955805436</v>
       </c>
       <c r="M12" t="n">
-        <v>5.470873029204313</v>
+        <v>5.474972976115658</v>
       </c>
       <c r="N12" t="n">
-        <v>48.34853488418553</v>
+        <v>48.38368900888899</v>
       </c>
       <c r="O12" t="n">
-        <v>6.953311073451664</v>
+        <v>6.955838483525117</v>
       </c>
       <c r="P12" t="n">
-        <v>400.9321741457217</v>
+        <v>400.9651455964878</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29614,7 +29669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M497"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62921,6 +62976,73 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-34.82206810853942,173.40824031996058</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-34.8226594054478,173.4077364318074</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-34.82330670296949,173.40740795676132</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-34.823991008039954,173.40720347583797</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-34.824689996466766,173.40705895996305</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-34.82540216997302,173.40695585011366</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-34.82612868568443,173.40699094288507</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-34.82683529893475,173.4071011502556</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-34.82746012793041,173.4074389616116</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-34.82794829912679,173.40797651365412</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-34.828298762779866,173.40870509534085</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
